--- a/Exports/TeamExport_A46051_Alpha_M_Period 2.xlsx
+++ b/Exports/TeamExport_A46051_Alpha_M_Period 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Anno III\UCSD\112\Markstrat\Reports\Exports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Anno III\UCSD\112\Markstrat\Code\Exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2983F748-2AB1-4618-8CD9-B72623837C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3B663E-1AD6-4362-BAEB-4C4C2A4DE1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="224">
   <si>
     <t>FINANCIAL REPORT – FIRM M – PERIOD 2</t>
   </si>
@@ -706,17 +706,22 @@
   <si>
     <t>Price_Utility</t>
   </si>
+  <si>
+    <t>Relative strength</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,6 +819,12 @@
     <font>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1464,11 +1475,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2442,6 +2454,18 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2478,15 +2502,33 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4039,25 +4081,25 @@
     </row>
     <row r="66" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="82"/>
-      <c r="D66" s="325"/>
-      <c r="E66" s="326"/>
-      <c r="F66" s="329" t="s">
+      <c r="D66" s="329"/>
+      <c r="E66" s="330"/>
+      <c r="F66" s="333" t="s">
         <v>38</v>
       </c>
-      <c r="G66" s="330"/>
-      <c r="H66" s="330"/>
-      <c r="I66" s="331"/>
-      <c r="J66" s="329" t="s">
+      <c r="G66" s="334"/>
+      <c r="H66" s="334"/>
+      <c r="I66" s="335"/>
+      <c r="J66" s="333" t="s">
         <v>39</v>
       </c>
-      <c r="K66" s="330"/>
-      <c r="L66" s="330"/>
-      <c r="M66" s="331"/>
+      <c r="K66" s="334"/>
+      <c r="L66" s="334"/>
+      <c r="M66" s="335"/>
     </row>
     <row r="67" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="82"/>
-      <c r="D67" s="327"/>
-      <c r="E67" s="328"/>
+      <c r="D67" s="331"/>
+      <c r="E67" s="332"/>
       <c r="F67" s="84" t="s">
         <v>40</v>
       </c>
@@ -7557,10 +7599,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R591"/>
+  <dimension ref="A1:Y591"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83:K90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A328" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J337" sqref="J337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7579,7 +7621,7 @@
     <col min="16" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="5" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>118</v>
       </c>
@@ -7592,7 +7634,7 @@
       <c r="J1" s="138"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" s="172" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="172" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="172" t="s">
         <v>119</v>
       </c>
@@ -7603,7 +7645,7 @@
       <c r="I2" s="173"/>
       <c r="J2" s="173"/>
     </row>
-    <row r="3" spans="1:11" s="172" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="172" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E3" s="173"/>
       <c r="F3" s="173"/>
       <c r="G3" s="173"/>
@@ -7611,17 +7653,21 @@
       <c r="I3" s="173"/>
       <c r="J3" s="173"/>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L4"/>
+      <c r="N4" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="81" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="82"/>
-      <c r="D5" s="327" t="s">
+      <c r="D5" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="328"/>
+      <c r="E5" s="332"/>
       <c r="F5" s="179" t="s">
         <v>121</v>
       </c>
@@ -7640,8 +7686,27 @@
       <c r="K5" s="132" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L5"/>
+      <c r="N5" s="179" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="R5" s="142" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="132" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="D6" s="88" t="s">
         <v>28</v>
@@ -7667,8 +7732,56 @@
       <c r="K6" s="186">
         <v>0.70399999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6"/>
+      <c r="M6" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="182">
+        <f>+F39/F6</f>
+        <v>0.23172905525846701</v>
+      </c>
+      <c r="O6" s="183">
+        <f t="shared" ref="O6:S13" si="0">+G39/G6</f>
+        <v>6.8548387096774202E-2</v>
+      </c>
+      <c r="P6" s="184">
+        <f t="shared" si="0"/>
+        <v>0.12535211267605634</v>
+      </c>
+      <c r="Q6" s="185">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="R6" s="184">
+        <f t="shared" si="0"/>
+        <v>1.1441647597254004E-2</v>
+      </c>
+      <c r="S6" s="186">
+        <f t="shared" si="0"/>
+        <v>0.55397727272727282</v>
+      </c>
+      <c r="U6" s="183">
+        <f>+IF(O6&lt;0.1,0,O6)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="183">
+        <f t="shared" ref="V6:V13" si="1">+IF(P6&lt;0.1,0,P6)</f>
+        <v>0.12535211267605634</v>
+      </c>
+      <c r="W6" s="183">
+        <f t="shared" ref="W6:W13" si="2">+IF(Q6&lt;0.1,0,Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="183">
+        <f t="shared" ref="X6:X13" si="3">+IF(R6&lt;0.1,0,R6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="183">
+        <f t="shared" ref="Y6:Y13" si="4">+IF(S6&lt;0.1,0,S6)</f>
+        <v>0.55397727272727282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="98" t="s">
         <v>29</v>
       </c>
@@ -7693,8 +7806,56 @@
       <c r="K7" s="103">
         <v>0.35899999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7"/>
+      <c r="M7" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="188">
+        <f t="shared" ref="N7:N13" si="5">+F40/F7</f>
+        <v>0.10582010582010583</v>
+      </c>
+      <c r="O7" s="189">
+        <f t="shared" si="0"/>
+        <v>0.1623108665749656</v>
+      </c>
+      <c r="P7" s="102">
+        <f t="shared" si="0"/>
+        <v>0.18646864686468648</v>
+      </c>
+      <c r="Q7" s="101">
+        <f t="shared" si="0"/>
+        <v>3.1695721077654518E-2</v>
+      </c>
+      <c r="R7" s="102">
+        <f t="shared" si="0"/>
+        <v>5.5194805194805199E-2</v>
+      </c>
+      <c r="S7" s="103">
+        <f t="shared" si="0"/>
+        <v>7.5208913649025072E-2</v>
+      </c>
+      <c r="U7" s="183">
+        <f t="shared" ref="U7:U13" si="6">+IF(O7&lt;0.1,0,O7)</f>
+        <v>0.1623108665749656</v>
+      </c>
+      <c r="V7" s="183">
+        <f t="shared" si="1"/>
+        <v>0.18646864686468648</v>
+      </c>
+      <c r="W7" s="183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="183">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="183">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="98" t="s">
         <v>93</v>
       </c>
@@ -7719,8 +7880,56 @@
       <c r="K8" s="103">
         <v>0.30599999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8"/>
+      <c r="M8" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="188">
+        <f t="shared" si="5"/>
+        <v>0.45895522388059701</v>
+      </c>
+      <c r="O8" s="189">
+        <f t="shared" si="0"/>
+        <v>0.22110552763819094</v>
+      </c>
+      <c r="P8" s="102">
+        <f t="shared" si="0"/>
+        <v>0.92540792540792549</v>
+      </c>
+      <c r="Q8" s="101">
+        <f t="shared" si="0"/>
+        <v>1.8957345971563982E-2</v>
+      </c>
+      <c r="R8" s="102">
+        <f t="shared" si="0"/>
+        <v>2.4271844660194178E-2</v>
+      </c>
+      <c r="S8" s="103">
+        <f t="shared" si="0"/>
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="U8" s="183">
+        <f t="shared" si="6"/>
+        <v>0.22110552763819094</v>
+      </c>
+      <c r="V8" s="183">
+        <f t="shared" si="1"/>
+        <v>0.92540792540792549</v>
+      </c>
+      <c r="W8" s="183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="183">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="183">
+        <f t="shared" si="4"/>
+        <v>0.41176470588235298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="98" t="s">
         <v>95</v>
       </c>
@@ -7745,8 +7954,56 @@
       <c r="K9" s="103">
         <v>0.41899999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9"/>
+      <c r="M9" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="188">
+        <f t="shared" si="5"/>
+        <v>0.4028892455858748</v>
+      </c>
+      <c r="O9" s="189">
+        <f t="shared" si="0"/>
+        <v>0.2786624203821656</v>
+      </c>
+      <c r="P9" s="102">
+        <f t="shared" si="0"/>
+        <v>0.10178571428571428</v>
+      </c>
+      <c r="Q9" s="101">
+        <f t="shared" si="0"/>
+        <v>0.84149484536082475</v>
+      </c>
+      <c r="R9" s="102">
+        <f t="shared" si="0"/>
+        <v>0.64350064350064351</v>
+      </c>
+      <c r="S9" s="103">
+        <f t="shared" si="0"/>
+        <v>3.1026252983293555E-2</v>
+      </c>
+      <c r="U9" s="183">
+        <f t="shared" si="6"/>
+        <v>0.2786624203821656</v>
+      </c>
+      <c r="V9" s="183">
+        <f t="shared" si="1"/>
+        <v>0.10178571428571428</v>
+      </c>
+      <c r="W9" s="183">
+        <f t="shared" si="2"/>
+        <v>0.84149484536082475</v>
+      </c>
+      <c r="X9" s="183">
+        <f t="shared" si="3"/>
+        <v>0.64350064350064351</v>
+      </c>
+      <c r="Y9" s="183">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="D10" s="98" t="s">
         <v>96</v>
@@ -7772,8 +8029,56 @@
       <c r="K10" s="103">
         <v>0.68200000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10"/>
+      <c r="M10" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="188">
+        <f t="shared" si="5"/>
+        <v>0.21317157712305027</v>
+      </c>
+      <c r="O10" s="189">
+        <f t="shared" si="0"/>
+        <v>7.0881226053639834E-2</v>
+      </c>
+      <c r="P10" s="102">
+        <f t="shared" si="0"/>
+        <v>0.12608695652173912</v>
+      </c>
+      <c r="Q10" s="101">
+        <f t="shared" si="0"/>
+        <v>8.0971659919028341E-3</v>
+      </c>
+      <c r="R10" s="102">
+        <f t="shared" si="0"/>
+        <v>1.0351966873706004E-2</v>
+      </c>
+      <c r="S10" s="103">
+        <f t="shared" si="0"/>
+        <v>0.53519061583577709</v>
+      </c>
+      <c r="U10" s="183">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="183">
+        <f t="shared" si="1"/>
+        <v>0.12608695652173912</v>
+      </c>
+      <c r="W10" s="183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="183">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="183">
+        <f t="shared" si="4"/>
+        <v>0.53519061583577709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="D11" s="98" t="s">
         <v>97</v>
@@ -7799,8 +8104,56 @@
       <c r="K11" s="103">
         <v>0.501</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11"/>
+      <c r="M11" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="188">
+        <f t="shared" si="5"/>
+        <v>0.1172529313232831</v>
+      </c>
+      <c r="O11" s="189">
+        <f t="shared" si="0"/>
+        <v>0.13416536661466458</v>
+      </c>
+      <c r="P11" s="102">
+        <f t="shared" si="0"/>
+        <v>0.22282608695652176</v>
+      </c>
+      <c r="Q11" s="101">
+        <f t="shared" si="0"/>
+        <v>2.364864864864865E-2</v>
+      </c>
+      <c r="R11" s="102">
+        <f t="shared" si="0"/>
+        <v>3.6020583190394515E-2</v>
+      </c>
+      <c r="S11" s="103">
+        <f t="shared" si="0"/>
+        <v>0.1157684630738523</v>
+      </c>
+      <c r="U11" s="183">
+        <f t="shared" si="6"/>
+        <v>0.13416536661466458</v>
+      </c>
+      <c r="V11" s="183">
+        <f t="shared" si="1"/>
+        <v>0.22282608695652176</v>
+      </c>
+      <c r="W11" s="183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="183">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="183">
+        <f t="shared" si="4"/>
+        <v>0.1157684630738523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="D12" s="98" t="s">
         <v>98</v>
@@ -7826,8 +8179,56 @@
       <c r="K12" s="103">
         <v>0.35299999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12"/>
+      <c r="M12" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="188">
+        <f t="shared" si="5"/>
+        <v>0.28801431127012522</v>
+      </c>
+      <c r="O12" s="189">
+        <f t="shared" si="0"/>
+        <v>0.2363367799113737</v>
+      </c>
+      <c r="P12" s="102">
+        <f t="shared" si="0"/>
+        <v>9.0737240075614359E-2</v>
+      </c>
+      <c r="Q12" s="101">
+        <f t="shared" si="0"/>
+        <v>0.44426229508196724</v>
+      </c>
+      <c r="R12" s="102">
+        <f t="shared" si="0"/>
+        <v>0.57827926657263751</v>
+      </c>
+      <c r="S12" s="103">
+        <f t="shared" si="0"/>
+        <v>2.8328611898016998E-2</v>
+      </c>
+      <c r="U12" s="183">
+        <f t="shared" si="6"/>
+        <v>0.2363367799113737</v>
+      </c>
+      <c r="V12" s="183">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="183">
+        <f t="shared" si="2"/>
+        <v>0.44426229508196724</v>
+      </c>
+      <c r="X12" s="183">
+        <f t="shared" si="3"/>
+        <v>0.57827926657263751</v>
+      </c>
+      <c r="Y12" s="183">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="D13" s="98" t="s">
         <v>99</v>
@@ -7853,8 +8254,56 @@
       <c r="K13" s="103">
         <v>0.39800000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13"/>
+      <c r="M13" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="188">
+        <f t="shared" si="5"/>
+        <v>0.15456238361266295</v>
+      </c>
+      <c r="O13" s="189">
+        <f t="shared" si="0"/>
+        <v>0.529051987767584</v>
+      </c>
+      <c r="P13" s="102">
+        <f t="shared" si="0"/>
+        <v>9.1649694501018328E-2</v>
+      </c>
+      <c r="Q13" s="101">
+        <f t="shared" si="0"/>
+        <v>4.3731778425655975E-2</v>
+      </c>
+      <c r="R13" s="102">
+        <f t="shared" si="0"/>
+        <v>3.968253968253968E-2</v>
+      </c>
+      <c r="S13" s="103">
+        <f t="shared" si="0"/>
+        <v>2.7638190954773868E-2</v>
+      </c>
+      <c r="U13" s="183">
+        <f t="shared" si="6"/>
+        <v>0.529051987767584</v>
+      </c>
+      <c r="V13" s="183">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="183">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="183">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="D14" s="98"/>
       <c r="E14" s="187"/>
@@ -7865,7 +8314,7 @@
       <c r="J14" s="102"/>
       <c r="K14" s="103"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="D15" s="98"/>
       <c r="E15" s="187"/>
@@ -7876,7 +8325,7 @@
       <c r="J15" s="102"/>
       <c r="K15" s="103"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="D16" s="98"/>
       <c r="E16" s="187"/>
@@ -8107,10 +8556,10 @@
     </row>
     <row r="38" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="82"/>
-      <c r="D38" s="327" t="s">
+      <c r="D38" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="328"/>
+      <c r="E38" s="332"/>
       <c r="F38" s="179" t="s">
         <v>121</v>
       </c>
@@ -8593,27 +9042,27 @@
         <v>128</v>
       </c>
       <c r="F69" s="204">
-        <f t="shared" ref="F69:K69" si="0">SUM(F39:F68)</f>
+        <f t="shared" ref="F69:K69" si="7">SUM(F39:F68)</f>
         <v>1.0010000000000001</v>
       </c>
       <c r="G69" s="205">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H69" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I69" s="207">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J69" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K69" s="208">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8624,10 +9073,10 @@
     </row>
     <row r="72" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="82"/>
-      <c r="D72" s="327" t="s">
+      <c r="D72" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="328"/>
+      <c r="E72" s="332"/>
       <c r="F72" s="153" t="s">
         <v>122</v>
       </c>
@@ -8773,37 +9222,37 @@
       <c r="B81" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F81" s="337">
+      <c r="F81" s="325">
         <f>+_xlfn.STDEV.P(F83:F90)</f>
         <v>8.7764510908453178E-2</v>
       </c>
-      <c r="G81" s="337">
-        <f t="shared" ref="G81:K81" si="1">+_xlfn.STDEV.P(G83:G90)</f>
+      <c r="G81" s="325">
+        <f t="shared" ref="G81:K81" si="8">+_xlfn.STDEV.P(G83:G90)</f>
         <v>0.10606181864837128</v>
       </c>
-      <c r="H81" s="337">
-        <f t="shared" si="1"/>
+      <c r="H81" s="325">
+        <f t="shared" si="8"/>
         <v>9.1923116651906431E-2</v>
       </c>
-      <c r="I81" s="337">
-        <f t="shared" si="1"/>
+      <c r="I81" s="325">
+        <f t="shared" si="8"/>
         <v>0.24129517064168524</v>
       </c>
-      <c r="J81" s="337">
-        <f t="shared" si="1"/>
+      <c r="J81" s="325">
+        <f t="shared" si="8"/>
         <v>0.20920171934044904</v>
       </c>
-      <c r="K81" s="337">
-        <f t="shared" si="1"/>
+      <c r="K81" s="325">
+        <f t="shared" si="8"/>
         <v>0.16395459546776966</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="82"/>
-      <c r="D82" s="327" t="s">
+      <c r="D82" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="328"/>
+      <c r="E82" s="332"/>
       <c r="F82" s="179" t="s">
         <v>128</v>
       </c>
@@ -9286,27 +9735,27 @@
         <v>128</v>
       </c>
       <c r="F113" s="204">
-        <f t="shared" ref="F113:K113" si="2">SUM(F83:F112)</f>
+        <f t="shared" ref="F113:K113" si="9">SUM(F83:F112)</f>
         <v>0.99900000000000011</v>
       </c>
       <c r="G113" s="205">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.99900000000000011</v>
       </c>
       <c r="H113" s="206">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.999</v>
       </c>
       <c r="I113" s="207">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.999</v>
       </c>
       <c r="J113" s="206">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.0009999999999999</v>
       </c>
       <c r="K113" s="208">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.0010000000000001</v>
       </c>
     </row>
@@ -9321,28 +9770,28 @@
         <v>0.23013463303186579</v>
       </c>
       <c r="O115" s="324">
-        <f t="shared" ref="O115:R115" si="3">+_xlfn.STDEV.P(O117:O124)</f>
+        <f t="shared" ref="O115:R115" si="10">+_xlfn.STDEV.P(O117:O124)</f>
         <v>0.20723394321811958</v>
       </c>
       <c r="P115" s="324">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.16214298277140998</v>
       </c>
       <c r="Q115" s="324">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.16144007602014493</v>
       </c>
       <c r="R115" s="324">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.32323564432313945</v>
       </c>
     </row>
     <row r="116" spans="1:18" s="81" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B116" s="82"/>
-      <c r="D116" s="327" t="s">
+      <c r="D116" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E116" s="328"/>
+      <c r="E116" s="332"/>
       <c r="F116" s="179" t="s">
         <v>128</v>
       </c>
@@ -9406,23 +9855,23 @@
       </c>
       <c r="L117"/>
       <c r="N117" s="323">
-        <f>+G117/$F117</f>
+        <f t="shared" ref="N117:R124" si="11">+G117/$F117</f>
         <v>3.4823083221997155E-2</v>
       </c>
       <c r="O117" s="323">
-        <f>+H117/$F117</f>
+        <f t="shared" si="11"/>
         <v>0.12360470628798</v>
       </c>
       <c r="P117" s="323">
-        <f>+I117/$F117</f>
+        <f t="shared" si="11"/>
         <v>4.6730410476477791E-3</v>
       </c>
       <c r="Q117" s="323">
-        <f>+J117/$F117</f>
+        <f t="shared" si="11"/>
         <v>6.1937803609139214E-3</v>
       </c>
       <c r="R117" s="323">
-        <f>+K117/$F117</f>
+        <f t="shared" si="11"/>
         <v>0.83071154592078611</v>
       </c>
     </row>
@@ -9453,23 +9902,23 @@
       </c>
       <c r="L118"/>
       <c r="N118" s="323">
-        <f>+G118/$F118</f>
+        <f t="shared" si="11"/>
         <v>0.3845658787736953</v>
       </c>
       <c r="O118" s="323">
-        <f>+H118/$F118</f>
+        <f t="shared" si="11"/>
         <v>0.345093221000078</v>
       </c>
       <c r="P118" s="323">
-        <f>+I118/$F118</f>
+        <f t="shared" si="11"/>
         <v>6.4630626413916842E-2</v>
       </c>
       <c r="Q118" s="323">
-        <f>+J118/$F118</f>
+        <f t="shared" si="11"/>
         <v>0.10435681410406428</v>
       </c>
       <c r="R118" s="323">
-        <f>+K118/$F118</f>
+        <f t="shared" si="11"/>
         <v>0.10137296200951712</v>
       </c>
     </row>
@@ -9500,23 +9949,23 @@
       </c>
       <c r="L119"/>
       <c r="N119" s="323">
-        <f>+G119/$F119</f>
+        <f t="shared" si="11"/>
         <v>5.8375000000000003E-2</v>
       </c>
       <c r="O119" s="323">
-        <f>+H119/$F119</f>
+        <f t="shared" si="11"/>
         <v>0.63678124999999997</v>
       </c>
       <c r="P119" s="323">
-        <f>+I119/$F119</f>
+        <f t="shared" si="11"/>
         <v>5.90625E-3</v>
       </c>
       <c r="Q119" s="323">
-        <f>+J119/$F119</f>
+        <f t="shared" si="11"/>
         <v>7.541666666666667E-3</v>
       </c>
       <c r="R119" s="323">
-        <f>+K119/$F119</f>
+        <f t="shared" si="11"/>
         <v>0.29140624999999998</v>
       </c>
     </row>
@@ -9547,23 +9996,23 @@
       </c>
       <c r="L120"/>
       <c r="N120" s="323">
-        <f>+G120/$F120</f>
+        <f t="shared" si="11"/>
         <v>0.11894548007175727</v>
       </c>
       <c r="O120" s="323">
-        <f>+H120/$F120</f>
+        <f t="shared" si="11"/>
         <v>4.152400829458136E-2</v>
       </c>
       <c r="P120" s="323">
-        <f>+I120/$F120</f>
+        <f t="shared" si="11"/>
         <v>0.47111285633214905</v>
       </c>
       <c r="Q120" s="323">
-        <f>+J120/$F120</f>
+        <f t="shared" si="11"/>
         <v>0.35569069065030701</v>
       </c>
       <c r="R120" s="323">
-        <f>+K120/$F120</f>
+        <f t="shared" si="11"/>
         <v>1.2724275098235923E-2</v>
       </c>
     </row>
@@ -9595,23 +10044,23 @@
       </c>
       <c r="L121"/>
       <c r="N121" s="323">
-        <f>+G121/$F121</f>
+        <f t="shared" si="11"/>
         <v>3.6108333333333333E-2</v>
       </c>
       <c r="O121" s="323">
-        <f>+H121/$F121</f>
+        <f t="shared" si="11"/>
         <v>0.12539166666666668</v>
       </c>
       <c r="P121" s="323">
-        <f>+I121/$F121</f>
+        <f t="shared" si="11"/>
         <v>4.8583333333333334E-3</v>
       </c>
       <c r="Q121" s="323">
-        <f>+J121/$F121</f>
+        <f t="shared" si="11"/>
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="R121" s="323">
-        <f>+K121/$F121</f>
+        <f t="shared" si="11"/>
         <v>0.82713333333333339</v>
       </c>
     </row>
@@ -9643,23 +10092,23 @@
       </c>
       <c r="L122"/>
       <c r="N122" s="323">
-        <f>+G122/$F122</f>
+        <f t="shared" si="11"/>
         <v>0.17452089737719928</v>
       </c>
       <c r="O122" s="323">
-        <f>+H122/$F122</f>
+        <f t="shared" si="11"/>
         <v>0.47490025508535549</v>
       </c>
       <c r="P122" s="323">
-        <f>+I122/$F122</f>
+        <f t="shared" si="11"/>
         <v>3.4943423376283603E-2</v>
       </c>
       <c r="Q122" s="323">
-        <f>+J122/$F122</f>
+        <f t="shared" si="11"/>
         <v>5.5628229446006934E-2</v>
       </c>
       <c r="R122" s="323">
-        <f>+K122/$F122</f>
+        <f t="shared" si="11"/>
         <v>0.26002354634050623</v>
       </c>
     </row>
@@ -9691,23 +10140,23 @@
       </c>
       <c r="L123"/>
       <c r="N123" s="323">
-        <f>+G123/$F123</f>
+        <f t="shared" si="11"/>
         <v>0.18459680301704481</v>
       </c>
       <c r="O123" s="323">
-        <f>+H123/$F123</f>
+        <f t="shared" si="11"/>
         <v>5.3334401459224294E-2</v>
       </c>
       <c r="P123" s="323">
-        <f>+I123/$F123</f>
+        <f t="shared" si="11"/>
         <v>0.30464388271977716</v>
       </c>
       <c r="Q123" s="323">
-        <f>+J123/$F123</f>
+        <f t="shared" si="11"/>
         <v>0.44333797557278248</v>
       </c>
       <c r="R123" s="323">
-        <f>+K123/$F123</f>
+        <f t="shared" si="11"/>
         <v>1.4086937231171199E-2</v>
       </c>
     </row>
@@ -9739,23 +10188,23 @@
       </c>
       <c r="L124"/>
       <c r="N124" s="323">
-        <f>+G124/$F124</f>
+        <f t="shared" si="11"/>
         <v>0.75746134020618561</v>
       </c>
       <c r="O124" s="323">
-        <f>+H124/$F124</f>
+        <f t="shared" si="11"/>
         <v>0.10206185567010309</v>
       </c>
       <c r="P124" s="323">
-        <f>+I124/$F124</f>
+        <f t="shared" si="11"/>
         <v>6.4536082474226805E-2</v>
       </c>
       <c r="Q124" s="323">
-        <f>+J124/$F124</f>
+        <f t="shared" si="11"/>
         <v>4.2461340206185569E-2</v>
       </c>
       <c r="R124" s="323">
-        <f>+K124/$F124</f>
+        <f t="shared" si="11"/>
         <v>3.3479381443298969E-2</v>
       </c>
     </row>
@@ -10009,27 +10458,27 @@
         <v>128</v>
       </c>
       <c r="F147" s="225">
-        <f t="shared" ref="F147:K147" si="4">SUM(F117:F146)</f>
+        <f t="shared" ref="F147:K147" si="12">SUM(F117:F146)</f>
         <v>1102540</v>
       </c>
       <c r="G147" s="226">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>178945</v>
       </c>
       <c r="H147" s="227">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>175006</v>
       </c>
       <c r="I147" s="228">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>236969</v>
       </c>
       <c r="J147" s="227">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>218751</v>
       </c>
       <c r="K147" s="229">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>292871</v>
       </c>
     </row>
@@ -10084,27 +10533,27 @@
     </row>
     <row r="152" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B152" s="82"/>
-      <c r="D152" s="325" t="s">
+      <c r="D152" s="329" t="s">
         <v>55</v>
       </c>
-      <c r="E152" s="326"/>
-      <c r="F152" s="329" t="s">
+      <c r="E152" s="330"/>
+      <c r="F152" s="333" t="s">
         <v>35</v>
       </c>
-      <c r="G152" s="330"/>
-      <c r="H152" s="330"/>
-      <c r="I152" s="331"/>
-      <c r="J152" s="329" t="s">
+      <c r="G152" s="334"/>
+      <c r="H152" s="334"/>
+      <c r="I152" s="335"/>
+      <c r="J152" s="333" t="s">
         <v>39</v>
       </c>
-      <c r="K152" s="330"/>
-      <c r="L152" s="330"/>
-      <c r="M152" s="331"/>
+      <c r="K152" s="334"/>
+      <c r="L152" s="334"/>
+      <c r="M152" s="335"/>
     </row>
     <row r="153" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B153" s="82"/>
-      <c r="D153" s="327"/>
-      <c r="E153" s="328"/>
+      <c r="D153" s="331"/>
+      <c r="E153" s="332"/>
       <c r="F153" s="84" t="s">
         <v>40</v>
       </c>
@@ -10649,35 +11098,35 @@
         <v>128</v>
       </c>
       <c r="F184" s="236">
-        <f t="shared" ref="F184:M184" si="5">SUM(F154:F183)</f>
+        <f t="shared" ref="F184:M184" si="13">SUM(F154:F183)</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="G184" s="237">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.0009999999999999</v>
       </c>
       <c r="H184" s="237">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.99899999999999989</v>
       </c>
       <c r="I184" s="238">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J184" s="239">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>544111.31300000008</v>
       </c>
       <c r="K184" s="120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>396616.85399999999</v>
       </c>
       <c r="L184" s="120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>161811.83899999998</v>
       </c>
       <c r="M184" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -10697,27 +11146,27 @@
     </row>
     <row r="187" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B187" s="82"/>
-      <c r="D187" s="325" t="s">
+      <c r="D187" s="329" t="s">
         <v>55</v>
       </c>
-      <c r="E187" s="326"/>
-      <c r="F187" s="329" t="s">
+      <c r="E187" s="330"/>
+      <c r="F187" s="333" t="s">
         <v>38</v>
       </c>
-      <c r="G187" s="330"/>
-      <c r="H187" s="330"/>
-      <c r="I187" s="331"/>
-      <c r="J187" s="329" t="s">
+      <c r="G187" s="334"/>
+      <c r="H187" s="334"/>
+      <c r="I187" s="335"/>
+      <c r="J187" s="333" t="s">
         <v>136</v>
       </c>
-      <c r="K187" s="330"/>
-      <c r="L187" s="330"/>
-      <c r="M187" s="331"/>
+      <c r="K187" s="334"/>
+      <c r="L187" s="334"/>
+      <c r="M187" s="335"/>
     </row>
     <row r="188" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B188" s="82"/>
-      <c r="D188" s="327"/>
-      <c r="E188" s="328"/>
+      <c r="D188" s="331"/>
+      <c r="E188" s="332"/>
       <c r="F188" s="84" t="s">
         <v>40</v>
       </c>
@@ -13359,7 +13808,7 @@
       <c r="J352" s="3"/>
       <c r="K352" s="3"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" s="3"/>
       <c r="D353" s="98"/>
       <c r="E353" s="255"/>
@@ -13370,7 +13819,7 @@
       <c r="J353" s="3"/>
       <c r="K353" s="3"/>
     </row>
-    <row r="354" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3"/>
       <c r="B354" s="2"/>
       <c r="D354" s="98"/>
@@ -13379,7 +13828,7 @@
       <c r="G354" s="105"/>
       <c r="H354" s="267"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" s="3"/>
       <c r="D355" s="98"/>
       <c r="E355" s="255"/>
@@ -13390,7 +13839,7 @@
       <c r="J355" s="3"/>
       <c r="K355" s="3"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356" s="3"/>
       <c r="D356" s="98"/>
       <c r="E356" s="255"/>
@@ -13401,7 +13850,7 @@
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357" s="3"/>
       <c r="D357" s="98"/>
       <c r="E357" s="255"/>
@@ -13412,7 +13861,7 @@
       <c r="J357" s="3"/>
       <c r="K357" s="3"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="3"/>
       <c r="D358" s="98"/>
       <c r="E358" s="255"/>
@@ -13423,25 +13872,55 @@
       <c r="J358" s="3"/>
       <c r="K358" s="3"/>
     </row>
-    <row r="359" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B359" s="2"/>
       <c r="D359" s="108"/>
       <c r="E359" s="256"/>
       <c r="F359" s="114"/>
       <c r="G359" s="115"/>
       <c r="H359" s="268"/>
-    </row>
-    <row r="361" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="I359"/>
+      <c r="K359" s="265">
+        <v>2.02</v>
+      </c>
+      <c r="L359" s="146">
+        <v>13.74</v>
+      </c>
+      <c r="M359" s="266">
+        <v>-6.96</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I360"/>
+      <c r="J360" s="4"/>
+      <c r="K360" s="327">
+        <f>+SUMPRODUCT($J$363:$J$368,K363:K368)</f>
+        <v>6.37</v>
+      </c>
+      <c r="L360" s="327">
+        <f>+SUMPRODUCT($J$363:$J$368,L363:L368)</f>
+        <v>10.010000000000002</v>
+      </c>
+      <c r="M360" s="327">
+        <f>+SUMPRODUCT($J$363:$J$368,M363:M368)</f>
+        <v>4.0250000000000004</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B361" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I361"/>
+      <c r="J361" s="4"/>
+      <c r="K361" s="80"/>
+      <c r="L361" s="4"/>
+    </row>
+    <row r="362" spans="1:14" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B362" s="82"/>
-      <c r="D362" s="327" t="s">
+      <c r="D362" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E362" s="328"/>
+      <c r="E362" s="332"/>
       <c r="F362" s="153" t="s">
         <v>147</v>
       </c>
@@ -13451,8 +13930,9 @@
       <c r="H362" s="165" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I362"/>
+    </row>
+    <row r="363" spans="1:14" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B363" s="2"/>
       <c r="D363" s="88"/>
       <c r="E363" s="254" t="s">
@@ -13467,8 +13947,22 @@
       <c r="H363" s="266" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I363"/>
+      <c r="J363" s="240">
+        <v>4.55</v>
+      </c>
+      <c r="K363" s="326">
+        <v>0.25</v>
+      </c>
+      <c r="L363" s="326">
+        <v>0</v>
+      </c>
+      <c r="M363" s="326">
+        <v>0.25</v>
+      </c>
+      <c r="N363" s="328"/>
+    </row>
+    <row r="364" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D364" s="98"/>
       <c r="E364" s="255" t="s">
         <v>103</v>
@@ -13482,11 +13976,22 @@
       <c r="H364" s="267" t="s">
         <v>154</v>
       </c>
-      <c r="I364" s="3"/>
-      <c r="J364" s="3"/>
-      <c r="K364" s="3"/>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I364"/>
+      <c r="J364" s="241">
+        <v>1.91</v>
+      </c>
+      <c r="K364" s="326">
+        <v>0</v>
+      </c>
+      <c r="L364" s="326">
+        <v>0</v>
+      </c>
+      <c r="M364" s="326">
+        <v>0.75</v>
+      </c>
+      <c r="N364" s="328"/>
+    </row>
+    <row r="365" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D365" s="98"/>
       <c r="E365" s="255" t="s">
         <v>104</v>
@@ -13500,11 +14005,22 @@
       <c r="H365" s="267" t="s">
         <v>152</v>
       </c>
-      <c r="I365" s="3"/>
-      <c r="J365" s="3"/>
-      <c r="K365" s="3"/>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I365"/>
+      <c r="J365" s="242">
+        <v>5.82</v>
+      </c>
+      <c r="K365" s="326">
+        <v>0</v>
+      </c>
+      <c r="L365" s="326">
+        <v>0</v>
+      </c>
+      <c r="M365" s="326">
+        <v>0.25</v>
+      </c>
+      <c r="N365" s="328"/>
+    </row>
+    <row r="366" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D366" s="98"/>
       <c r="E366" s="255" t="s">
         <v>105</v>
@@ -13518,11 +14034,22 @@
       <c r="H366" s="267" t="s">
         <v>153</v>
       </c>
-      <c r="I366" s="3"/>
-      <c r="J366" s="3"/>
-      <c r="K366" s="3"/>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I366"/>
+      <c r="J366" s="241">
+        <v>5.91</v>
+      </c>
+      <c r="K366" s="326">
+        <v>0</v>
+      </c>
+      <c r="L366" s="326">
+        <v>0.5</v>
+      </c>
+      <c r="M366" s="326">
+        <v>0</v>
+      </c>
+      <c r="N366" s="328"/>
+    </row>
+    <row r="367" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D367" s="98"/>
       <c r="E367" s="255" t="s">
         <v>106</v>
@@ -13536,11 +14063,22 @@
       <c r="H367" s="267" t="s">
         <v>153</v>
       </c>
-      <c r="I367" s="3"/>
-      <c r="J367" s="3"/>
-      <c r="K367" s="3"/>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I367"/>
+      <c r="J367" s="242">
+        <v>6.13</v>
+      </c>
+      <c r="K367" s="326">
+        <v>0.25</v>
+      </c>
+      <c r="L367" s="326">
+        <v>1</v>
+      </c>
+      <c r="M367" s="326">
+        <v>0</v>
+      </c>
+      <c r="N367" s="328"/>
+    </row>
+    <row r="368" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D368" s="108"/>
       <c r="E368" s="256" t="s">
         <v>139</v>
@@ -13554,9 +14092,20 @@
       <c r="H368" s="268" t="s">
         <v>153</v>
       </c>
-      <c r="I368" s="3"/>
-      <c r="J368" s="3"/>
-      <c r="K368" s="3"/>
+      <c r="I368"/>
+      <c r="J368" s="243">
+        <v>3.7</v>
+      </c>
+      <c r="K368" s="326">
+        <v>1</v>
+      </c>
+      <c r="L368" s="326">
+        <v>0.25</v>
+      </c>
+      <c r="M368" s="326">
+        <v>0</v>
+      </c>
+      <c r="N368" s="328"/>
     </row>
     <row r="370" spans="1:18" s="5" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
@@ -13578,10 +14127,10 @@
     </row>
     <row r="372" spans="1:18" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B372" s="82"/>
-      <c r="D372" s="327" t="s">
+      <c r="D372" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E372" s="328"/>
+      <c r="E372" s="332"/>
       <c r="F372" s="179" t="s">
         <v>128</v>
       </c>
@@ -13630,19 +14179,19 @@
         <v>0.26923076923076922</v>
       </c>
       <c r="N373" s="323">
-        <f t="shared" ref="N373:Q376" si="6">+H373/$F373</f>
+        <f t="shared" ref="N373:Q376" si="14">+H373/$F373</f>
         <v>0.18099547511312217</v>
       </c>
       <c r="O373" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="P373" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="Q373" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.25565610859728505</v>
       </c>
     </row>
@@ -13671,23 +14220,23 @@
         <v>1060</v>
       </c>
       <c r="M374" s="323">
-        <f t="shared" ref="M374:M376" si="7">+G374/$F374</f>
+        <f t="shared" ref="M374:M376" si="15">+G374/$F374</f>
         <v>9.125475285171103E-2</v>
       </c>
       <c r="N374" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.2585551330798479</v>
       </c>
       <c r="O374" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.21292775665399238</v>
       </c>
       <c r="P374" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.23574144486692014</v>
       </c>
       <c r="Q374" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.20152091254752852</v>
       </c>
     </row>
@@ -13716,23 +14265,23 @@
         <v>980</v>
       </c>
       <c r="M375" s="323">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.17632850241545894</v>
       </c>
       <c r="N375" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.26328502415458938</v>
       </c>
       <c r="O375" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.16183574879227053</v>
       </c>
       <c r="P375" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.16183574879227053</v>
       </c>
       <c r="Q375" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.23671497584541062</v>
       </c>
     </row>
@@ -13761,23 +14310,23 @@
         <v>760</v>
       </c>
       <c r="M376" s="323">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.302491103202847</v>
       </c>
       <c r="N376" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.13701067615658363</v>
       </c>
       <c r="O376" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.20640569395017794</v>
       </c>
       <c r="P376" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.2188612099644128</v>
       </c>
       <c r="Q376" s="323">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.13523131672597866</v>
       </c>
     </row>
@@ -13809,27 +14358,27 @@
         <v>128</v>
       </c>
       <c r="F379" s="225">
-        <f t="shared" ref="F379:K379" si="8">SUM(F373:F378)</f>
+        <f t="shared" ref="F379:K379" si="16">SUM(F373:F378)</f>
         <v>19440</v>
       </c>
       <c r="G379" s="226">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4100</v>
       </c>
       <c r="H379" s="227">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4020</v>
       </c>
       <c r="I379" s="228">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>3600</v>
       </c>
       <c r="J379" s="227">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>3790</v>
       </c>
       <c r="K379" s="229">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>3930</v>
       </c>
     </row>
@@ -13924,19 +14473,19 @@
         <v>8.673469387755102E-2</v>
       </c>
       <c r="O384" s="72">
-        <f t="shared" ref="O384:O391" si="9">+H384/SUM($G384:$K384)</f>
+        <f t="shared" ref="O384:O391" si="17">+H384/SUM($G384:$K384)</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="P384" s="70">
-        <f t="shared" ref="P384:P391" si="10">+I384/SUM($G384:$K384)</f>
+        <f t="shared" ref="P384:P391" si="18">+I384/SUM($G384:$K384)</f>
         <v>8.673469387755102E-2</v>
       </c>
       <c r="Q384" s="72">
-        <f t="shared" ref="Q384:Q391" si="11">+J384/SUM($G384:$K384)</f>
+        <f t="shared" ref="Q384:Q391" si="19">+J384/SUM($G384:$K384)</f>
         <v>8.673469387755102E-2</v>
       </c>
       <c r="R384" s="73">
-        <f t="shared" ref="R384:R391" si="12">+K384/SUM($G384:$K384)</f>
+        <f t="shared" ref="R384:R391" si="20">+K384/SUM($G384:$K384)</f>
         <v>0.45408163265306123</v>
       </c>
     </row>
@@ -13966,23 +14515,23 @@
         <v>29</v>
       </c>
       <c r="N385" s="194">
-        <f t="shared" ref="N385:N391" si="13">+G385/SUM($G385:$K385)</f>
+        <f t="shared" ref="N385:N391" si="21">+G385/SUM($G385:$K385)</f>
         <v>0.41463414634146339</v>
       </c>
       <c r="O385" s="72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9.7560975609756101E-2</v>
       </c>
       <c r="P385" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.1951219512195122</v>
       </c>
       <c r="Q385" s="72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.1951219512195122</v>
       </c>
       <c r="R385" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>9.7560975609756101E-2</v>
       </c>
     </row>
@@ -14012,23 +14561,23 @@
         <v>93</v>
       </c>
       <c r="N386" s="194">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>9.0225563909774431E-2</v>
       </c>
       <c r="O386" s="72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.42105263157894735</v>
       </c>
       <c r="P386" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>9.0225563909774431E-2</v>
       </c>
       <c r="Q386" s="72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>9.0225563909774431E-2</v>
       </c>
       <c r="R386" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.30827067669172931</v>
       </c>
     </row>
@@ -14058,23 +14607,23 @@
         <v>95</v>
       </c>
       <c r="N387" s="194">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>9.2307692307692313E-2</v>
       </c>
       <c r="O387" s="72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9.2307692307692313E-2</v>
       </c>
       <c r="P387" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.33846153846153848</v>
       </c>
       <c r="Q387" s="72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="R387" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>9.2307692307692313E-2</v>
       </c>
     </row>
@@ -14105,23 +14654,23 @@
         <v>96</v>
       </c>
       <c r="N388" s="194">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.14975845410628019</v>
       </c>
       <c r="O388" s="72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.25120772946859904</v>
       </c>
       <c r="P388" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.14975845410628019</v>
       </c>
       <c r="Q388" s="72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.14975845410628019</v>
       </c>
       <c r="R388" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.29951690821256038</v>
       </c>
     </row>
@@ -14152,23 +14701,23 @@
         <v>97</v>
       </c>
       <c r="N389" s="194">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.20289855072463769</v>
       </c>
       <c r="O389" s="72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.27536231884057971</v>
       </c>
       <c r="P389" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="Q389" s="72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="R389" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.17391304347826086</v>
       </c>
     </row>
@@ -14199,23 +14748,23 @@
         <v>98</v>
       </c>
       <c r="N390" s="194">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.30232558139534882</v>
       </c>
       <c r="O390" s="72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.14950166112956811</v>
       </c>
       <c r="P390" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.12292358803986711</v>
       </c>
       <c r="Q390" s="72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.30232558139534882</v>
       </c>
       <c r="R390" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.12292358803986711</v>
       </c>
     </row>
@@ -14246,23 +14795,23 @@
         <v>99</v>
       </c>
       <c r="N391" s="194">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.30268199233716475</v>
       </c>
       <c r="O391" s="72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.12260536398467432</v>
       </c>
       <c r="P391" s="70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.30268199233716475</v>
       </c>
       <c r="Q391" s="72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.12260536398467432</v>
       </c>
       <c r="R391" s="73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.14942528735632185</v>
       </c>
     </row>
@@ -14516,27 +15065,27 @@
         <v>128</v>
       </c>
       <c r="F414" s="225">
-        <f t="shared" ref="F414:K414" si="14">SUM(F384:F413)</f>
+        <f t="shared" ref="F414:K414" si="22">SUM(F384:F413)</f>
         <v>19440</v>
       </c>
       <c r="G414" s="226">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>4100</v>
       </c>
       <c r="H414" s="227">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>4020</v>
       </c>
       <c r="I414" s="228">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3600</v>
       </c>
       <c r="J414" s="227">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3790</v>
       </c>
       <c r="K414" s="229">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3930</v>
       </c>
     </row>
@@ -14558,10 +15107,10 @@
     </row>
     <row r="418" spans="1:11" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B418" s="82"/>
-      <c r="D418" s="327" t="s">
+      <c r="D418" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E418" s="328"/>
+      <c r="E418" s="332"/>
       <c r="F418" s="139" t="s">
         <v>161</v>
       </c>
@@ -14999,10 +15548,10 @@
     </row>
     <row r="454" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B454" s="82"/>
-      <c r="D454" s="327" t="s">
+      <c r="D454" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E454" s="328"/>
+      <c r="E454" s="332"/>
       <c r="F454" s="179" t="s">
         <v>128</v>
       </c>
@@ -15163,10 +15712,10 @@
     </row>
     <row r="464" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B464" s="82"/>
-      <c r="D464" s="327" t="s">
+      <c r="D464" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E464" s="328"/>
+      <c r="E464" s="332"/>
       <c r="F464" s="179" t="s">
         <v>128</v>
       </c>
@@ -15651,10 +16200,10 @@
     </row>
     <row r="499" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B499" s="82"/>
-      <c r="D499" s="327" t="s">
+      <c r="D499" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E499" s="328"/>
+      <c r="E499" s="332"/>
       <c r="F499" s="153" t="s">
         <v>122</v>
       </c>
@@ -15766,10 +16315,10 @@
     </row>
     <row r="507" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B507" s="82"/>
-      <c r="D507" s="327" t="s">
+      <c r="D507" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E507" s="328"/>
+      <c r="E507" s="332"/>
       <c r="F507" s="278" t="s">
         <v>122</v>
       </c>
@@ -15875,10 +16424,10 @@
     </row>
     <row r="515" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B515" s="82"/>
-      <c r="D515" s="327" t="s">
+      <c r="D515" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E515" s="327"/>
+      <c r="E515" s="331"/>
       <c r="F515" s="282"/>
     </row>
     <row r="516" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -15967,10 +16516,10 @@
     </row>
     <row r="525" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B525" s="82"/>
-      <c r="D525" s="327" t="s">
+      <c r="D525" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E525" s="328"/>
+      <c r="E525" s="332"/>
       <c r="F525" s="153" t="s">
         <v>40</v>
       </c>
@@ -16067,10 +16616,10 @@
     </row>
     <row r="533" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B533" s="82"/>
-      <c r="D533" s="327" t="s">
+      <c r="D533" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E533" s="328"/>
+      <c r="E533" s="332"/>
       <c r="F533" s="153" t="s">
         <v>40</v>
       </c>
@@ -16159,10 +16708,10 @@
     </row>
     <row r="541" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B541" s="82"/>
-      <c r="D541" s="327" t="s">
+      <c r="D541" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E541" s="327"/>
+      <c r="E541" s="331"/>
       <c r="F541" s="282"/>
     </row>
     <row r="542" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -16252,28 +16801,28 @@
     </row>
     <row r="551" spans="1:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B551" s="9"/>
-      <c r="F551" s="332" t="s">
+      <c r="F551" s="336" t="s">
         <v>182</v>
       </c>
-      <c r="G551" s="333"/>
-      <c r="H551" s="334"/>
-      <c r="I551" s="332" t="s">
+      <c r="G551" s="337"/>
+      <c r="H551" s="338"/>
+      <c r="I551" s="336" t="s">
         <v>183</v>
       </c>
-      <c r="J551" s="333"/>
-      <c r="K551" s="334"/>
-      <c r="L551" s="332" t="s">
+      <c r="J551" s="337"/>
+      <c r="K551" s="338"/>
+      <c r="L551" s="336" t="s">
         <v>184</v>
       </c>
-      <c r="M551" s="333"/>
-      <c r="N551" s="334"/>
+      <c r="M551" s="337"/>
+      <c r="N551" s="338"/>
     </row>
     <row r="552" spans="1:14" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B552" s="82"/>
-      <c r="D552" s="327" t="s">
+      <c r="D552" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E552" s="327"/>
+      <c r="E552" s="331"/>
       <c r="F552" s="84" t="s">
         <v>4</v>
       </c>
@@ -16327,15 +16876,15 @@
         <v>0.153</v>
       </c>
       <c r="L553" s="290">
-        <f t="shared" ref="L553:N557" si="15">IF(F553=0,"",IF(F$558=0,"",F553/F$558))</f>
+        <f t="shared" ref="L553:N557" si="23">IF(F553=0,"",IF(F$558=0,"",F553/F$558))</f>
         <v>0.16228467815049863</v>
       </c>
       <c r="M553" s="156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.16170861937452327</v>
       </c>
       <c r="N553" s="271">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.16882516188714153</v>
       </c>
     </row>
@@ -16364,15 +16913,15 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="L554" s="234">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.1586582048957389</v>
       </c>
       <c r="M554" s="159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.17162471395881007</v>
       </c>
       <c r="N554" s="273">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.22895467160037003</v>
       </c>
     </row>
@@ -16401,15 +16950,15 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="L555" s="234">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.21486854034451497</v>
       </c>
       <c r="M555" s="159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.20442410373760489</v>
       </c>
       <c r="N555" s="273">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.14523589269195189</v>
       </c>
     </row>
@@ -16438,15 +16987,15 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="L556" s="234">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.19854941069809609</v>
       </c>
       <c r="M556" s="159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.19755911517925248</v>
       </c>
       <c r="N556" s="273">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.15494912118408879</v>
       </c>
     </row>
@@ -16475,15 +17024,15 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="L557" s="235">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.26563916591115139</v>
       </c>
       <c r="M557" s="275">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.26468344774980929</v>
       </c>
       <c r="N557" s="276">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.30203515263644776</v>
       </c>
     </row>
@@ -16556,10 +17105,10 @@
     </row>
     <row r="563" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B563" s="82"/>
-      <c r="D563" s="327" t="s">
+      <c r="D563" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="E563" s="328"/>
+      <c r="E563" s="332"/>
       <c r="F563" s="153" t="s">
         <v>122</v>
       </c>
@@ -17358,6 +17907,24 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D362:E362"/>
+    <mergeCell ref="D372:E372"/>
+    <mergeCell ref="D187:E188"/>
+    <mergeCell ref="D552:E552"/>
+    <mergeCell ref="D454:E454"/>
+    <mergeCell ref="D464:E464"/>
+    <mergeCell ref="D499:E499"/>
+    <mergeCell ref="D418:E418"/>
+    <mergeCell ref="F187:I187"/>
+    <mergeCell ref="J187:M187"/>
+    <mergeCell ref="D152:E153"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="J152:M152"/>
     <mergeCell ref="D563:E563"/>
     <mergeCell ref="D507:E507"/>
     <mergeCell ref="F551:H551"/>
@@ -17367,48 +17934,36 @@
     <mergeCell ref="D525:E525"/>
     <mergeCell ref="D533:E533"/>
     <mergeCell ref="D541:E541"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="J187:M187"/>
-    <mergeCell ref="D152:E153"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="J152:M152"/>
-    <mergeCell ref="D362:E362"/>
-    <mergeCell ref="D372:E372"/>
-    <mergeCell ref="D187:E188"/>
-    <mergeCell ref="D552:E552"/>
-    <mergeCell ref="D454:E454"/>
-    <mergeCell ref="D464:E464"/>
-    <mergeCell ref="D499:E499"/>
-    <mergeCell ref="D418:E418"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D116:E116"/>
   </mergeCells>
   <conditionalFormatting sqref="N384:R384">
+    <cfRule type="top10" dxfId="9" priority="10" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N385:R385">
+    <cfRule type="top10" dxfId="8" priority="9" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N386:R386">
     <cfRule type="top10" dxfId="7" priority="8" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N385:R385">
+  <conditionalFormatting sqref="N387:R387">
     <cfRule type="top10" dxfId="6" priority="7" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N386:R386">
+  <conditionalFormatting sqref="N388:R388">
     <cfRule type="top10" dxfId="5" priority="6" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N387:R387">
+  <conditionalFormatting sqref="N389:R389">
     <cfRule type="top10" dxfId="4" priority="5" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N388:R388">
+  <conditionalFormatting sqref="N390:R390">
     <cfRule type="top10" dxfId="3" priority="4" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N389:R389">
+  <conditionalFormatting sqref="N391:R391">
     <cfRule type="top10" dxfId="2" priority="3" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N390:R390">
-    <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
+  <conditionalFormatting sqref="O6:S13">
+    <cfRule type="top10" dxfId="1" priority="2" rank="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N391:R391">
-    <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
+  <conditionalFormatting sqref="U6:Y13">
+    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17478,10 +18033,10 @@
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="82"/>
-      <c r="D5" s="327" t="s">
+      <c r="D5" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="328"/>
+      <c r="E5" s="332"/>
       <c r="F5" s="179" t="s">
         <v>121</v>
       </c>
@@ -17837,10 +18392,10 @@
     </row>
     <row r="38" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="82"/>
-      <c r="D38" s="327" t="s">
+      <c r="D38" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="328"/>
+      <c r="E38" s="332"/>
       <c r="F38" s="179" t="s">
         <v>121</v>
       </c>
@@ -18224,10 +18779,10 @@
     </row>
     <row r="72" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="82"/>
-      <c r="D72" s="327" t="s">
+      <c r="D72" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="328"/>
+      <c r="E72" s="332"/>
       <c r="F72" s="153" t="s">
         <v>198</v>
       </c>
@@ -18338,10 +18893,10 @@
     </row>
     <row r="82" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="82"/>
-      <c r="D82" s="327" t="s">
+      <c r="D82" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E82" s="328"/>
+      <c r="E82" s="332"/>
       <c r="F82" s="179" t="s">
         <v>128</v>
       </c>
@@ -18726,10 +19281,10 @@
     </row>
     <row r="116" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B116" s="82"/>
-      <c r="D116" s="327" t="s">
+      <c r="D116" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E116" s="328"/>
+      <c r="E116" s="332"/>
       <c r="F116" s="179" t="s">
         <v>128</v>
       </c>
@@ -19157,27 +19712,27 @@
     </row>
     <row r="152" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B152" s="82"/>
-      <c r="D152" s="325" t="s">
+      <c r="D152" s="329" t="s">
         <v>71</v>
       </c>
-      <c r="E152" s="326"/>
-      <c r="F152" s="329" t="s">
+      <c r="E152" s="330"/>
+      <c r="F152" s="333" t="s">
         <v>35</v>
       </c>
-      <c r="G152" s="330"/>
-      <c r="H152" s="330"/>
-      <c r="I152" s="331"/>
-      <c r="J152" s="329" t="s">
+      <c r="G152" s="334"/>
+      <c r="H152" s="334"/>
+      <c r="I152" s="335"/>
+      <c r="J152" s="333" t="s">
         <v>39</v>
       </c>
-      <c r="K152" s="330"/>
-      <c r="L152" s="330"/>
-      <c r="M152" s="331"/>
+      <c r="K152" s="334"/>
+      <c r="L152" s="334"/>
+      <c r="M152" s="335"/>
     </row>
     <row r="153" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B153" s="82"/>
-      <c r="D153" s="327"/>
-      <c r="E153" s="328"/>
+      <c r="D153" s="331"/>
+      <c r="E153" s="332"/>
       <c r="F153" s="84" t="s">
         <v>40</v>
       </c>
@@ -19646,27 +20201,27 @@
     </row>
     <row r="187" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B187" s="82"/>
-      <c r="D187" s="325" t="s">
+      <c r="D187" s="329" t="s">
         <v>71</v>
       </c>
-      <c r="E187" s="326"/>
-      <c r="F187" s="329" t="s">
+      <c r="E187" s="330"/>
+      <c r="F187" s="333" t="s">
         <v>38</v>
       </c>
-      <c r="G187" s="330"/>
-      <c r="H187" s="330"/>
-      <c r="I187" s="331"/>
-      <c r="J187" s="329" t="s">
+      <c r="G187" s="334"/>
+      <c r="H187" s="334"/>
+      <c r="I187" s="335"/>
+      <c r="J187" s="333" t="s">
         <v>136</v>
       </c>
-      <c r="K187" s="330"/>
-      <c r="L187" s="330"/>
-      <c r="M187" s="331"/>
+      <c r="K187" s="334"/>
+      <c r="L187" s="334"/>
+      <c r="M187" s="335"/>
     </row>
     <row r="188" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B188" s="82"/>
-      <c r="D188" s="327"/>
-      <c r="E188" s="328"/>
+      <c r="D188" s="331"/>
+      <c r="E188" s="332"/>
       <c r="F188" s="84" t="s">
         <v>40</v>
       </c>
@@ -20117,10 +20672,10 @@
     </row>
     <row r="223" spans="1:13" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B223" s="82"/>
-      <c r="D223" s="327" t="s">
+      <c r="D223" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E223" s="328"/>
+      <c r="E223" s="332"/>
       <c r="F223" s="153" t="s">
         <v>72</v>
       </c>
@@ -21066,10 +21621,10 @@
     </row>
     <row r="296" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B296" s="82"/>
-      <c r="D296" s="327" t="s">
+      <c r="D296" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E296" s="328"/>
+      <c r="E296" s="332"/>
       <c r="F296" s="153" t="s">
         <v>206</v>
       </c>
@@ -21749,10 +22304,10 @@
     </row>
     <row r="362" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B362" s="82"/>
-      <c r="D362" s="327" t="s">
+      <c r="D362" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E362" s="328"/>
+      <c r="E362" s="332"/>
       <c r="F362" s="153" t="s">
         <v>206</v>
       </c>
@@ -21843,10 +22398,10 @@
     </row>
     <row r="372" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B372" s="82"/>
-      <c r="D372" s="327" t="s">
+      <c r="D372" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E372" s="328"/>
+      <c r="E372" s="332"/>
       <c r="F372" s="179" t="s">
         <v>128</v>
       </c>
@@ -21980,10 +22535,10 @@
     </row>
     <row r="383" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B383" s="82"/>
-      <c r="D383" s="327" t="s">
+      <c r="D383" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E383" s="328"/>
+      <c r="E383" s="332"/>
       <c r="F383" s="179" t="s">
         <v>128</v>
       </c>
@@ -22378,10 +22933,10 @@
     </row>
     <row r="418" spans="1:11" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B418" s="82"/>
-      <c r="D418" s="327" t="s">
+      <c r="D418" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E418" s="328"/>
+      <c r="E418" s="332"/>
       <c r="F418" s="139" t="s">
         <v>161</v>
       </c>
@@ -22757,10 +23312,10 @@
     </row>
     <row r="454" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B454" s="82"/>
-      <c r="D454" s="327" t="s">
+      <c r="D454" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E454" s="328"/>
+      <c r="E454" s="332"/>
       <c r="F454" s="179" t="s">
         <v>128</v>
       </c>
@@ -22883,10 +23438,10 @@
     </row>
     <row r="464" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B464" s="82"/>
-      <c r="D464" s="327" t="s">
+      <c r="D464" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E464" s="328"/>
+      <c r="E464" s="332"/>
       <c r="F464" s="179" t="s">
         <v>128</v>
       </c>
@@ -23277,10 +23832,10 @@
     </row>
     <row r="499" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B499" s="82"/>
-      <c r="D499" s="327" t="s">
+      <c r="D499" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E499" s="328"/>
+      <c r="E499" s="332"/>
       <c r="F499" s="153" t="s">
         <v>198</v>
       </c>
@@ -23362,10 +23917,10 @@
     </row>
     <row r="507" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B507" s="82"/>
-      <c r="D507" s="327" t="s">
+      <c r="D507" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E507" s="328"/>
+      <c r="E507" s="332"/>
       <c r="F507" s="278" t="s">
         <v>198</v>
       </c>
@@ -23441,10 +23996,10 @@
     </row>
     <row r="515" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B515" s="82"/>
-      <c r="D515" s="327" t="s">
+      <c r="D515" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E515" s="327"/>
+      <c r="E515" s="331"/>
       <c r="F515" s="282"/>
     </row>
     <row r="516" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -23523,10 +24078,10 @@
     </row>
     <row r="525" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B525" s="82"/>
-      <c r="D525" s="327" t="s">
+      <c r="D525" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E525" s="328"/>
+      <c r="E525" s="332"/>
       <c r="F525" s="153" t="s">
         <v>40</v>
       </c>
@@ -23605,10 +24160,10 @@
     </row>
     <row r="533" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B533" s="82"/>
-      <c r="D533" s="327" t="s">
+      <c r="D533" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E533" s="328"/>
+      <c r="E533" s="332"/>
       <c r="F533" s="153" t="s">
         <v>40</v>
       </c>
@@ -23679,10 +24234,10 @@
     </row>
     <row r="541" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B541" s="82"/>
-      <c r="D541" s="327" t="s">
+      <c r="D541" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E541" s="327"/>
+      <c r="E541" s="331"/>
       <c r="F541" s="282"/>
     </row>
     <row r="542" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -23762,28 +24317,28 @@
     </row>
     <row r="551" spans="1:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B551" s="9"/>
-      <c r="F551" s="332" t="s">
+      <c r="F551" s="336" t="s">
         <v>182</v>
       </c>
-      <c r="G551" s="333"/>
-      <c r="H551" s="334"/>
-      <c r="I551" s="332" t="s">
+      <c r="G551" s="337"/>
+      <c r="H551" s="338"/>
+      <c r="I551" s="336" t="s">
         <v>183</v>
       </c>
-      <c r="J551" s="333"/>
-      <c r="K551" s="334"/>
-      <c r="L551" s="332" t="s">
+      <c r="J551" s="337"/>
+      <c r="K551" s="338"/>
+      <c r="L551" s="336" t="s">
         <v>184</v>
       </c>
-      <c r="M551" s="333"/>
-      <c r="N551" s="334"/>
+      <c r="M551" s="337"/>
+      <c r="N551" s="338"/>
     </row>
     <row r="552" spans="1:14" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B552" s="82"/>
-      <c r="D552" s="327" t="s">
+      <c r="D552" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E552" s="327"/>
+      <c r="E552" s="331"/>
       <c r="F552" s="84" t="s">
         <v>4</v>
       </c>
@@ -24038,10 +24593,10 @@
     </row>
     <row r="563" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B563" s="82"/>
-      <c r="D563" s="327" t="s">
+      <c r="D563" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E563" s="328"/>
+      <c r="E563" s="332"/>
       <c r="F563" s="153" t="s">
         <v>198</v>
       </c>
@@ -24132,23 +24687,23 @@
     <row r="571" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A571" s="3"/>
       <c r="B571" s="9"/>
-      <c r="F571" s="335" t="s">
+      <c r="F571" s="339" t="s">
         <v>214</v>
       </c>
-      <c r="G571" s="336"/>
-      <c r="H571" s="335"/>
-      <c r="I571" s="336"/>
-      <c r="J571" s="335"/>
-      <c r="K571" s="336"/>
-      <c r="L571" s="335"/>
-      <c r="M571" s="336"/>
+      <c r="G571" s="340"/>
+      <c r="H571" s="339"/>
+      <c r="I571" s="340"/>
+      <c r="J571" s="339"/>
+      <c r="K571" s="340"/>
+      <c r="L571" s="339"/>
+      <c r="M571" s="340"/>
     </row>
     <row r="572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A572" s="3"/>
-      <c r="D572" s="327" t="s">
+      <c r="D572" s="331" t="s">
         <v>71</v>
       </c>
-      <c r="E572" s="328"/>
+      <c r="E572" s="332"/>
       <c r="F572" s="298" t="s">
         <v>194</v>
       </c>
@@ -24446,13 +25001,26 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D362:E362"/>
-    <mergeCell ref="D372:E372"/>
-    <mergeCell ref="D187:E188"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="J187:M187"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="D572:E572"/>
+    <mergeCell ref="L551:N551"/>
+    <mergeCell ref="D552:E552"/>
+    <mergeCell ref="D563:E563"/>
+    <mergeCell ref="F571:G571"/>
+    <mergeCell ref="H571:I571"/>
+    <mergeCell ref="J571:K571"/>
+    <mergeCell ref="L571:M571"/>
+    <mergeCell ref="D515:E515"/>
+    <mergeCell ref="D525:E525"/>
+    <mergeCell ref="D533:E533"/>
+    <mergeCell ref="F551:H551"/>
+    <mergeCell ref="I551:K551"/>
+    <mergeCell ref="D541:E541"/>
+    <mergeCell ref="D383:E383"/>
+    <mergeCell ref="D454:E454"/>
+    <mergeCell ref="D464:E464"/>
+    <mergeCell ref="D499:E499"/>
+    <mergeCell ref="D507:E507"/>
+    <mergeCell ref="D418:E418"/>
     <mergeCell ref="D152:E153"/>
     <mergeCell ref="F152:I152"/>
     <mergeCell ref="J152:M152"/>
@@ -24461,26 +25029,13 @@
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D383:E383"/>
-    <mergeCell ref="D454:E454"/>
-    <mergeCell ref="D464:E464"/>
-    <mergeCell ref="D499:E499"/>
-    <mergeCell ref="D507:E507"/>
-    <mergeCell ref="D418:E418"/>
-    <mergeCell ref="D515:E515"/>
-    <mergeCell ref="D525:E525"/>
-    <mergeCell ref="D533:E533"/>
-    <mergeCell ref="F551:H551"/>
-    <mergeCell ref="I551:K551"/>
-    <mergeCell ref="D541:E541"/>
-    <mergeCell ref="D572:E572"/>
-    <mergeCell ref="L551:N551"/>
-    <mergeCell ref="D552:E552"/>
-    <mergeCell ref="D563:E563"/>
-    <mergeCell ref="F571:G571"/>
-    <mergeCell ref="H571:I571"/>
-    <mergeCell ref="J571:K571"/>
-    <mergeCell ref="L571:M571"/>
+    <mergeCell ref="D362:E362"/>
+    <mergeCell ref="D372:E372"/>
+    <mergeCell ref="D187:E188"/>
+    <mergeCell ref="F187:I187"/>
+    <mergeCell ref="J187:M187"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D296:E296"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Exports/TeamExport_A46051_Alpha_M_Period 2.xlsx
+++ b/Exports/TeamExport_A46051_Alpha_M_Period 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Anno III\UCSD\112\Markstrat\Code\Exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3B663E-1AD6-4362-BAEB-4C4C2A4DE1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D0635D-18F8-4DA1-9208-62D21EE56FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="227">
   <si>
     <t>FINANCIAL REPORT – FIRM M – PERIOD 2</t>
   </si>
@@ -708,6 +708,15 @@
   </si>
   <si>
     <t>Relative strength</t>
+  </si>
+  <si>
+    <t>R centr</t>
+  </si>
+  <si>
+    <t>shoppers</t>
+  </si>
+  <si>
+    <t>centroid</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1489,7 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2464,6 +2473,30 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2508,7 +2541,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4081,25 +4124,25 @@
     </row>
     <row r="66" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="82"/>
-      <c r="D66" s="329"/>
-      <c r="E66" s="330"/>
-      <c r="F66" s="333" t="s">
+      <c r="D66" s="337"/>
+      <c r="E66" s="338"/>
+      <c r="F66" s="341" t="s">
         <v>38</v>
       </c>
-      <c r="G66" s="334"/>
-      <c r="H66" s="334"/>
-      <c r="I66" s="335"/>
-      <c r="J66" s="333" t="s">
+      <c r="G66" s="342"/>
+      <c r="H66" s="342"/>
+      <c r="I66" s="343"/>
+      <c r="J66" s="341" t="s">
         <v>39</v>
       </c>
-      <c r="K66" s="334"/>
-      <c r="L66" s="334"/>
-      <c r="M66" s="335"/>
+      <c r="K66" s="342"/>
+      <c r="L66" s="342"/>
+      <c r="M66" s="343"/>
     </row>
     <row r="67" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="82"/>
-      <c r="D67" s="331"/>
-      <c r="E67" s="332"/>
+      <c r="D67" s="339"/>
+      <c r="E67" s="340"/>
       <c r="F67" s="84" t="s">
         <v>40</v>
       </c>
@@ -7599,10 +7642,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Y591"/>
+  <dimension ref="A1:AA591"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A328" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J337" sqref="J337"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A262" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F290" sqref="F290:K290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7664,10 +7707,10 @@
     </row>
     <row r="5" spans="1:25" s="81" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="82"/>
-      <c r="D5" s="331" t="s">
+      <c r="D5" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="332"/>
+      <c r="E5" s="340"/>
       <c r="F5" s="179" t="s">
         <v>121</v>
       </c>
@@ -7706,7 +7749,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="D6" s="88" t="s">
         <v>28</v>
@@ -7760,28 +7803,13 @@
         <f t="shared" si="0"/>
         <v>0.55397727272727282</v>
       </c>
-      <c r="U6" s="183">
-        <f>+IF(O6&lt;0.1,0,O6)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="183">
-        <f t="shared" ref="V6:V13" si="1">+IF(P6&lt;0.1,0,P6)</f>
-        <v>0.12535211267605634</v>
-      </c>
-      <c r="W6" s="183">
-        <f t="shared" ref="W6:W13" si="2">+IF(Q6&lt;0.1,0,Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="183">
-        <f t="shared" ref="X6:X13" si="3">+IF(R6&lt;0.1,0,R6)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="183">
-        <f t="shared" ref="Y6:Y13" si="4">+IF(S6&lt;0.1,0,S6)</f>
-        <v>0.55397727272727282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D7" s="98" t="s">
         <v>29</v>
       </c>
@@ -7811,7 +7839,7 @@
         <v>29</v>
       </c>
       <c r="N7" s="188">
-        <f t="shared" ref="N7:N13" si="5">+F40/F7</f>
+        <f t="shared" ref="N7:N13" si="1">+F40/F7</f>
         <v>0.10582010582010583</v>
       </c>
       <c r="O7" s="189">
@@ -7834,28 +7862,13 @@
         <f t="shared" si="0"/>
         <v>7.5208913649025072E-2</v>
       </c>
-      <c r="U7" s="183">
-        <f t="shared" ref="U7:U13" si="6">+IF(O7&lt;0.1,0,O7)</f>
-        <v>0.1623108665749656</v>
-      </c>
-      <c r="V7" s="183">
-        <f t="shared" si="1"/>
-        <v>0.18646864686468648</v>
-      </c>
-      <c r="W7" s="183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="183">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="183">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D8" s="98" t="s">
         <v>93</v>
       </c>
@@ -7885,7 +7898,7 @@
         <v>93</v>
       </c>
       <c r="N8" s="188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.45895522388059701</v>
       </c>
       <c r="O8" s="189">
@@ -7908,28 +7921,13 @@
         <f t="shared" si="0"/>
         <v>0.41176470588235298</v>
       </c>
-      <c r="U8" s="183">
-        <f t="shared" si="6"/>
-        <v>0.22110552763819094</v>
-      </c>
-      <c r="V8" s="183">
-        <f t="shared" si="1"/>
-        <v>0.92540792540792549</v>
-      </c>
-      <c r="W8" s="183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="183">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="183">
-        <f t="shared" si="4"/>
-        <v>0.41176470588235298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D9" s="98" t="s">
         <v>95</v>
       </c>
@@ -7959,7 +7957,7 @@
         <v>95</v>
       </c>
       <c r="N9" s="188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.4028892455858748</v>
       </c>
       <c r="O9" s="189">
@@ -7982,28 +7980,13 @@
         <f t="shared" si="0"/>
         <v>3.1026252983293555E-2</v>
       </c>
-      <c r="U9" s="183">
-        <f t="shared" si="6"/>
-        <v>0.2786624203821656</v>
-      </c>
-      <c r="V9" s="183">
-        <f t="shared" si="1"/>
-        <v>0.10178571428571428</v>
-      </c>
-      <c r="W9" s="183">
-        <f t="shared" si="2"/>
-        <v>0.84149484536082475</v>
-      </c>
-      <c r="X9" s="183">
-        <f t="shared" si="3"/>
-        <v>0.64350064350064351</v>
-      </c>
-      <c r="Y9" s="183">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="D10" s="98" t="s">
         <v>96</v>
@@ -8034,7 +8017,7 @@
         <v>96</v>
       </c>
       <c r="N10" s="188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.21317157712305027</v>
       </c>
       <c r="O10" s="189">
@@ -8057,28 +8040,13 @@
         <f t="shared" si="0"/>
         <v>0.53519061583577709</v>
       </c>
-      <c r="U10" s="183">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="183">
-        <f t="shared" si="1"/>
-        <v>0.12608695652173912</v>
-      </c>
-      <c r="W10" s="183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="183">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="183">
-        <f t="shared" si="4"/>
-        <v>0.53519061583577709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="D11" s="98" t="s">
         <v>97</v>
@@ -8109,7 +8077,7 @@
         <v>97</v>
       </c>
       <c r="N11" s="188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.1172529313232831</v>
       </c>
       <c r="O11" s="189">
@@ -8132,28 +8100,13 @@
         <f t="shared" si="0"/>
         <v>0.1157684630738523</v>
       </c>
-      <c r="U11" s="183">
-        <f t="shared" si="6"/>
-        <v>0.13416536661466458</v>
-      </c>
-      <c r="V11" s="183">
-        <f t="shared" si="1"/>
-        <v>0.22282608695652176</v>
-      </c>
-      <c r="W11" s="183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="183">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="183">
-        <f t="shared" si="4"/>
-        <v>0.1157684630738523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="D12" s="98" t="s">
         <v>98</v>
@@ -8184,7 +8137,7 @@
         <v>98</v>
       </c>
       <c r="N12" s="188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.28801431127012522</v>
       </c>
       <c r="O12" s="189">
@@ -8207,26 +8160,11 @@
         <f t="shared" si="0"/>
         <v>2.8328611898016998E-2</v>
       </c>
-      <c r="U12" s="183">
-        <f t="shared" si="6"/>
-        <v>0.2363367799113737</v>
-      </c>
-      <c r="V12" s="183">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="183">
-        <f t="shared" si="2"/>
-        <v>0.44426229508196724</v>
-      </c>
-      <c r="X12" s="183">
-        <f t="shared" si="3"/>
-        <v>0.57827926657263751</v>
-      </c>
-      <c r="Y12" s="183">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -8259,7 +8197,7 @@
         <v>99</v>
       </c>
       <c r="N13" s="188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.15456238361266295</v>
       </c>
       <c r="O13" s="189">
@@ -8282,26 +8220,11 @@
         <f t="shared" si="0"/>
         <v>2.7638190954773868E-2</v>
       </c>
-      <c r="U13" s="183">
-        <f t="shared" si="6"/>
-        <v>0.529051987767584</v>
-      </c>
-      <c r="V13" s="183">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="183">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="183">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
@@ -8556,10 +8479,10 @@
     </row>
     <row r="38" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="82"/>
-      <c r="D38" s="331" t="s">
+      <c r="D38" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="332"/>
+      <c r="E38" s="340"/>
       <c r="F38" s="179" t="s">
         <v>121</v>
       </c>
@@ -9042,27 +8965,27 @@
         <v>128</v>
       </c>
       <c r="F69" s="204">
-        <f t="shared" ref="F69:K69" si="7">SUM(F39:F68)</f>
+        <f t="shared" ref="F69:K69" si="2">SUM(F39:F68)</f>
         <v>1.0010000000000001</v>
       </c>
       <c r="G69" s="205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H69" s="206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I69" s="207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J69" s="206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K69" s="208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -9073,10 +8996,10 @@
     </row>
     <row r="72" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="82"/>
-      <c r="D72" s="331" t="s">
+      <c r="D72" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="332"/>
+      <c r="E72" s="340"/>
       <c r="F72" s="153" t="s">
         <v>122</v>
       </c>
@@ -9218,7 +9141,7 @@
       <c r="J80" s="138"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.3">
       <c r="B81" s="9" t="s">
         <v>131</v>
       </c>
@@ -9227,32 +9150,32 @@
         <v>8.7764510908453178E-2</v>
       </c>
       <c r="G81" s="325">
-        <f t="shared" ref="G81:K81" si="8">+_xlfn.STDEV.P(G83:G90)</f>
+        <f t="shared" ref="G81:K81" si="3">+_xlfn.STDEV.P(G83:G90)</f>
         <v>0.10606181864837128</v>
       </c>
       <c r="H81" s="325">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>9.1923116651906431E-2</v>
       </c>
       <c r="I81" s="325">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.24129517064168524</v>
       </c>
       <c r="J81" s="325">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.20920171934044904</v>
       </c>
       <c r="K81" s="325">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.16395459546776966</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="82"/>
-      <c r="D82" s="331" t="s">
+      <c r="D82" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="332"/>
+      <c r="E82" s="340"/>
       <c r="F82" s="179" t="s">
         <v>128</v>
       </c>
@@ -9272,7 +9195,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>
       <c r="D83" s="88" t="s">
         <v>28</v>
@@ -9298,8 +9221,29 @@
       <c r="K83" s="73">
         <v>0.46100000000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N83" s="329">
+        <f>+G83/SUM($G83:$K83)</f>
+        <v>5.1948051948051938E-2</v>
+      </c>
+      <c r="O83" s="329">
+        <f t="shared" ref="O83:O90" si="4">+H83/SUM($G83:$K83)</f>
+        <v>0.18668831168831165</v>
+      </c>
+      <c r="P83" s="329">
+        <f t="shared" ref="P83:P90" si="5">+I83/SUM($G83:$K83)</f>
+        <v>4.8701298701298691E-3</v>
+      </c>
+      <c r="Q83" s="329">
+        <f t="shared" ref="Q83:Q90" si="6">+J83/SUM($G83:$K83)</f>
+        <v>8.1168831168831161E-3</v>
+      </c>
+      <c r="R83" s="329">
+        <f t="shared" ref="R83:R90" si="7">+K83/SUM($G83:$K83)</f>
+        <v>0.74837662337662325</v>
+      </c>
+      <c r="S83" s="329"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D84" s="98" t="s">
         <v>29</v>
       </c>
@@ -9324,8 +9268,28 @@
       <c r="K84" s="198">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N84" s="329">
+        <f t="shared" ref="N84:N90" si="8">+G84/SUM($G84:$K84)</f>
+        <v>0.41198501872659171</v>
+      </c>
+      <c r="O84" s="329">
+        <f t="shared" si="4"/>
+        <v>0.37827715355805241</v>
+      </c>
+      <c r="P84" s="329">
+        <f t="shared" si="5"/>
+        <v>5.2434456928838948E-2</v>
+      </c>
+      <c r="Q84" s="329">
+        <f t="shared" si="6"/>
+        <v>8.98876404494382E-2</v>
+      </c>
+      <c r="R84" s="329">
+        <f t="shared" si="7"/>
+        <v>6.7415730337078636E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D85" s="98" t="s">
         <v>93</v>
       </c>
@@ -9350,8 +9314,28 @@
       <c r="K85" s="198">
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N85" s="329">
+        <f t="shared" si="8"/>
+        <v>6.4449064449064453E-2</v>
+      </c>
+      <c r="O85" s="329">
+        <f t="shared" si="4"/>
+        <v>0.72557172557172556</v>
+      </c>
+      <c r="P85" s="329">
+        <f t="shared" si="5"/>
+        <v>4.1580041580041582E-3</v>
+      </c>
+      <c r="Q85" s="329">
+        <f t="shared" si="6"/>
+        <v>6.2370062370062374E-3</v>
+      </c>
+      <c r="R85" s="329">
+        <f t="shared" si="7"/>
+        <v>0.1995841995841996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D86" s="98" t="s">
         <v>95</v>
       </c>
@@ -9376,8 +9360,28 @@
       <c r="K86" s="198">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N86" s="329">
+        <f t="shared" si="8"/>
+        <v>0.1457227138643068</v>
+      </c>
+      <c r="O86" s="329">
+        <f t="shared" si="4"/>
+        <v>5.191740412979351E-2</v>
+      </c>
+      <c r="P86" s="329">
+        <f t="shared" si="5"/>
+        <v>0.43598820058997051</v>
+      </c>
+      <c r="Q86" s="329">
+        <f t="shared" si="6"/>
+        <v>0.35693215339233042</v>
+      </c>
+      <c r="R86" s="329">
+        <f t="shared" si="7"/>
+        <v>9.4395280235988217E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="D87" s="98" t="s">
         <v>96</v>
@@ -9403,8 +9407,28 @@
       <c r="K87" s="198">
         <v>0.33900000000000002</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N87" s="329">
+        <f t="shared" si="8"/>
+        <v>5.2747252747252747E-2</v>
+      </c>
+      <c r="O87" s="329">
+        <f t="shared" si="4"/>
+        <v>0.18901098901098898</v>
+      </c>
+      <c r="P87" s="329">
+        <f t="shared" si="5"/>
+        <v>4.3956043956043956E-3</v>
+      </c>
+      <c r="Q87" s="329">
+        <f t="shared" si="6"/>
+        <v>8.7912087912087912E-3</v>
+      </c>
+      <c r="R87" s="329">
+        <f t="shared" si="7"/>
+        <v>0.74505494505494507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="D88" s="98" t="s">
         <v>97</v>
@@ -9430,8 +9454,28 @@
       <c r="K88" s="198">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N88" s="329">
+        <f t="shared" si="8"/>
+        <v>0.19672131147540983</v>
+      </c>
+      <c r="O88" s="329">
+        <f t="shared" si="4"/>
+        <v>0.54426229508196722</v>
+      </c>
+      <c r="P88" s="329">
+        <f t="shared" si="5"/>
+        <v>2.9508196721311473E-2</v>
+      </c>
+      <c r="Q88" s="329">
+        <f t="shared" si="6"/>
+        <v>5.2459016393442623E-2</v>
+      </c>
+      <c r="R88" s="329">
+        <f t="shared" si="7"/>
+        <v>0.17704918032786884</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="D89" s="98" t="s">
         <v>98</v>
@@ -9457,8 +9501,28 @@
       <c r="K89" s="198">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N89" s="329">
+        <f t="shared" si="8"/>
+        <v>0.21916010498687666</v>
+      </c>
+      <c r="O89" s="329">
+        <f t="shared" si="4"/>
+        <v>6.4304461942257224E-2</v>
+      </c>
+      <c r="P89" s="329">
+        <f t="shared" si="5"/>
+        <v>0.27427821522309709</v>
+      </c>
+      <c r="Q89" s="329">
+        <f t="shared" si="6"/>
+        <v>0.43175853018372706</v>
+      </c>
+      <c r="R89" s="329">
+        <f t="shared" si="7"/>
+        <v>1.0498687664041995E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="D90" s="98" t="s">
         <v>99</v>
@@ -9484,8 +9548,28 @@
       <c r="K90" s="198">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N90" s="329">
+        <f t="shared" si="8"/>
+        <v>0.78468899521531099</v>
+      </c>
+      <c r="O90" s="329">
+        <f t="shared" si="4"/>
+        <v>0.10765550239234449</v>
+      </c>
+      <c r="P90" s="329">
+        <f t="shared" si="5"/>
+        <v>5.0239234449760764E-2</v>
+      </c>
+      <c r="Q90" s="329">
+        <f t="shared" si="6"/>
+        <v>3.5885167464114825E-2</v>
+      </c>
+      <c r="R90" s="329">
+        <f t="shared" si="7"/>
+        <v>2.1531100478468897E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="D91" s="98"/>
       <c r="E91" s="187"/>
@@ -9496,7 +9580,7 @@
       <c r="J91" s="149"/>
       <c r="K91" s="198"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="D92" s="98"/>
       <c r="E92" s="187"/>
@@ -9507,7 +9591,7 @@
       <c r="J92" s="149"/>
       <c r="K92" s="198"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="D93" s="98"/>
       <c r="E93" s="187"/>
@@ -9518,7 +9602,7 @@
       <c r="J93" s="149"/>
       <c r="K93" s="198"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="D94" s="98"/>
       <c r="E94" s="187"/>
@@ -9529,7 +9613,7 @@
       <c r="J94" s="149"/>
       <c r="K94" s="198"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="D95" s="98"/>
       <c r="E95" s="187"/>
@@ -9540,7 +9624,7 @@
       <c r="J95" s="149"/>
       <c r="K95" s="198"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="D96" s="98"/>
       <c r="E96" s="187"/>
@@ -9788,10 +9872,10 @@
     </row>
     <row r="116" spans="1:18" s="81" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B116" s="82"/>
-      <c r="D116" s="331" t="s">
+      <c r="D116" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E116" s="332"/>
+      <c r="E116" s="340"/>
       <c r="F116" s="179" t="s">
         <v>128</v>
       </c>
@@ -10533,27 +10617,27 @@
     </row>
     <row r="152" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B152" s="82"/>
-      <c r="D152" s="329" t="s">
+      <c r="D152" s="337" t="s">
         <v>55</v>
       </c>
-      <c r="E152" s="330"/>
-      <c r="F152" s="333" t="s">
+      <c r="E152" s="338"/>
+      <c r="F152" s="341" t="s">
         <v>35</v>
       </c>
-      <c r="G152" s="334"/>
-      <c r="H152" s="334"/>
-      <c r="I152" s="335"/>
-      <c r="J152" s="333" t="s">
+      <c r="G152" s="342"/>
+      <c r="H152" s="342"/>
+      <c r="I152" s="343"/>
+      <c r="J152" s="341" t="s">
         <v>39</v>
       </c>
-      <c r="K152" s="334"/>
-      <c r="L152" s="334"/>
-      <c r="M152" s="335"/>
-    </row>
-    <row r="153" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K152" s="342"/>
+      <c r="L152" s="342"/>
+      <c r="M152" s="343"/>
+    </row>
+    <row r="153" spans="1:15" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B153" s="82"/>
-      <c r="D153" s="331"/>
-      <c r="E153" s="332"/>
+      <c r="D153" s="339"/>
+      <c r="E153" s="340"/>
       <c r="F153" s="84" t="s">
         <v>40</v>
       </c>
@@ -11146,27 +11230,27 @@
     </row>
     <row r="187" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B187" s="82"/>
-      <c r="D187" s="329" t="s">
+      <c r="D187" s="337" t="s">
         <v>55</v>
       </c>
-      <c r="E187" s="330"/>
-      <c r="F187" s="333" t="s">
+      <c r="E187" s="338"/>
+      <c r="F187" s="341" t="s">
         <v>38</v>
       </c>
-      <c r="G187" s="334"/>
-      <c r="H187" s="334"/>
-      <c r="I187" s="335"/>
-      <c r="J187" s="333" t="s">
+      <c r="G187" s="342"/>
+      <c r="H187" s="342"/>
+      <c r="I187" s="343"/>
+      <c r="J187" s="341" t="s">
         <v>136</v>
       </c>
-      <c r="K187" s="334"/>
-      <c r="L187" s="334"/>
-      <c r="M187" s="335"/>
-    </row>
-    <row r="188" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K187" s="342"/>
+      <c r="L187" s="342"/>
+      <c r="M187" s="343"/>
+    </row>
+    <row r="188" spans="1:13" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B188" s="82"/>
-      <c r="D188" s="331"/>
-      <c r="E188" s="332"/>
+      <c r="D188" s="339"/>
+      <c r="E188" s="340"/>
       <c r="F188" s="84" t="s">
         <v>40</v>
       </c>
@@ -12051,7 +12135,7 @@
       <c r="J240" s="246"/>
       <c r="K240" s="247"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A241" s="3"/>
       <c r="D241" s="98"/>
       <c r="E241" s="187"/>
@@ -12062,7 +12146,7 @@
       <c r="J241" s="246"/>
       <c r="K241" s="247"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="3"/>
       <c r="D242" s="98"/>
       <c r="E242" s="187"/>
@@ -12073,7 +12157,7 @@
       <c r="J242" s="246"/>
       <c r="K242" s="247"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A243" s="3"/>
       <c r="D243" s="98"/>
       <c r="E243" s="187"/>
@@ -12084,7 +12168,7 @@
       <c r="J243" s="246"/>
       <c r="K243" s="247"/>
     </row>
-    <row r="244" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
       <c r="B244" s="2"/>
       <c r="D244" s="98"/>
@@ -12096,7 +12180,7 @@
       <c r="J244" s="246"/>
       <c r="K244" s="247"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
       <c r="D245" s="98"/>
       <c r="E245" s="187"/>
@@ -12107,7 +12191,7 @@
       <c r="J245" s="246"/>
       <c r="K245" s="247"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
       <c r="D246" s="98"/>
       <c r="E246" s="187"/>
@@ -12118,7 +12202,7 @@
       <c r="J246" s="246"/>
       <c r="K246" s="247"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
       <c r="D247" s="98"/>
       <c r="E247" s="187"/>
@@ -12129,7 +12213,7 @@
       <c r="J247" s="246"/>
       <c r="K247" s="247"/>
     </row>
-    <row r="248" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
       <c r="B248" s="2"/>
       <c r="D248" s="98"/>
@@ -12141,7 +12225,7 @@
       <c r="J248" s="246"/>
       <c r="K248" s="247"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
       <c r="D249" s="98"/>
       <c r="E249" s="187"/>
@@ -12152,7 +12236,7 @@
       <c r="J249" s="246"/>
       <c r="K249" s="247"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
       <c r="D250" s="98"/>
       <c r="E250" s="187"/>
@@ -12163,7 +12247,7 @@
       <c r="J250" s="246"/>
       <c r="K250" s="247"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
       <c r="D251" s="98"/>
       <c r="E251" s="187"/>
@@ -12174,7 +12258,7 @@
       <c r="J251" s="246"/>
       <c r="K251" s="247"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
       <c r="D252" s="98"/>
       <c r="E252" s="187"/>
@@ -12185,7 +12269,7 @@
       <c r="J252" s="246"/>
       <c r="K252" s="247"/>
     </row>
-    <row r="253" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B253" s="2"/>
       <c r="D253" s="108"/>
       <c r="E253" s="190"/>
@@ -12196,12 +12280,12 @@
       <c r="J253" s="250"/>
       <c r="K253" s="251"/>
     </row>
-    <row r="255" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B255" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="256" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" s="81" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B256" s="82"/>
       <c r="D256" s="252" t="s">
         <v>141</v>
@@ -12227,8 +12311,27 @@
       <c r="K256" s="132" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M256" s="1"/>
+      <c r="N256" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="O256" s="164" t="s">
+        <v>103</v>
+      </c>
+      <c r="P256" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q256" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="R256" s="142" t="s">
+        <v>106</v>
+      </c>
+      <c r="S256" s="132" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B257" s="2"/>
       <c r="D257" s="88" t="s">
         <v>122</v>
@@ -12254,8 +12357,47 @@
       <c r="K257" s="243">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M257" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="N257" s="244">
+        <v>2.11</v>
+      </c>
+      <c r="O257" s="245">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="P257" s="246">
+        <v>2.39</v>
+      </c>
+      <c r="Q257" s="245">
+        <v>4.22</v>
+      </c>
+      <c r="R257" s="246">
+        <v>3.18</v>
+      </c>
+      <c r="S257" s="247">
+        <v>2.82</v>
+      </c>
+      <c r="V257" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="W257" s="330">
+        <v>9.0225563909774431E-2</v>
+      </c>
+      <c r="X257" s="331">
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="Y257" s="332">
+        <v>9.0225563909774431E-2</v>
+      </c>
+      <c r="Z257" s="331">
+        <v>9.0225563909774431E-2</v>
+      </c>
+      <c r="AA257" s="333">
+        <v>0.30827067669172931</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D258" s="98" t="s">
         <v>125</v>
       </c>
@@ -12280,8 +12422,29 @@
       <c r="K258" s="247">
         <v>5.57</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M258" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="N258" s="244">
+        <v>3.0766165413533799</v>
+      </c>
+      <c r="O258" s="245">
+        <v>5.2662406015037497</v>
+      </c>
+      <c r="P258" s="246">
+        <v>3.52827067669172</v>
+      </c>
+      <c r="Q258" s="245">
+        <v>4.4778195488721799</v>
+      </c>
+      <c r="R258" s="246">
+        <v>4.50714285714285</v>
+      </c>
+      <c r="S258" s="247">
+        <v>4.27413533834586</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D259" s="98" t="s">
         <v>124</v>
       </c>
@@ -12306,8 +12469,35 @@
       <c r="K259" s="247">
         <v>5.23</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M259" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="N259" s="244">
+        <f>+F261</f>
+        <v>1.87</v>
+      </c>
+      <c r="O259" s="245">
+        <f t="shared" ref="O259:S259" si="14">+G261</f>
+        <v>4.97</v>
+      </c>
+      <c r="P259" s="246">
+        <f t="shared" si="14"/>
+        <v>2.9</v>
+      </c>
+      <c r="Q259" s="245">
+        <f t="shared" si="14"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="R259" s="246">
+        <f t="shared" si="14"/>
+        <v>4.05</v>
+      </c>
+      <c r="S259" s="247">
+        <f t="shared" si="14"/>
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D260" s="98" t="s">
         <v>126</v>
       </c>
@@ -12332,8 +12522,9 @@
       <c r="K260" s="247">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="W260" s="335"/>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A261" s="3"/>
       <c r="D261" s="98" t="s">
         <v>123</v>
@@ -12359,8 +12550,40 @@
       <c r="K261" s="247">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M261" s="336" t="s">
+        <v>226</v>
+      </c>
+      <c r="N261" s="326">
+        <f>+N258-N257</f>
+        <v>0.96661654135338004</v>
+      </c>
+      <c r="O261" s="326">
+        <f t="shared" ref="O261:S261" si="15">+O258-O257</f>
+        <v>0.49624060150375016</v>
+      </c>
+      <c r="P261" s="326">
+        <f t="shared" si="15"/>
+        <v>1.1382706766917199</v>
+      </c>
+      <c r="Q261" s="326">
+        <f t="shared" si="15"/>
+        <v>0.25781954887218017</v>
+      </c>
+      <c r="R261" s="326">
+        <f t="shared" si="15"/>
+        <v>1.3271428571428499</v>
+      </c>
+      <c r="S261" s="326">
+        <f t="shared" si="15"/>
+        <v>1.4541353383458602</v>
+      </c>
+      <c r="T261" s="326">
+        <f>SUM(N261:S261)</f>
+        <v>5.6402255639097412</v>
+      </c>
+      <c r="W261" s="326"/>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A262" s="3"/>
       <c r="D262" s="98" t="s">
         <v>122</v>
@@ -12386,8 +12609,40 @@
       <c r="K262" s="247">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M262" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N262" s="326">
+        <f>+ABS(N259-N257)</f>
+        <v>0.23999999999999977</v>
+      </c>
+      <c r="O262" s="326">
+        <f t="shared" ref="O262:S262" si="16">+ABS(O259-O257)</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="P262" s="326">
+        <f t="shared" si="16"/>
+        <v>0.50999999999999979</v>
+      </c>
+      <c r="Q262" s="326">
+        <f t="shared" si="16"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="R262" s="326">
+        <f t="shared" si="16"/>
+        <v>0.86999999999999966</v>
+      </c>
+      <c r="S262" s="326">
+        <f t="shared" si="16"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="T262" s="326">
+        <f>SUM(N262:S262)</f>
+        <v>2.0699999999999994</v>
+      </c>
+      <c r="W262" s="326"/>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A263" s="3"/>
       <c r="D263" s="98" t="s">
         <v>125</v>
@@ -12413,8 +12668,9 @@
       <c r="K263" s="247">
         <v>5.59</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="W263" s="326"/>
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A264" s="3"/>
       <c r="D264" s="98" t="s">
         <v>124</v>
@@ -12440,8 +12696,9 @@
       <c r="K264" s="247">
         <v>5</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="W264" s="326"/>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A265" s="3"/>
       <c r="D265" s="98" t="s">
         <v>126</v>
@@ -12467,8 +12724,9 @@
       <c r="K265" s="247">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="W265" s="334"/>
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A266" s="3"/>
       <c r="D266" s="98" t="s">
         <v>123</v>
@@ -12495,7 +12753,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A267" s="3"/>
       <c r="D267" s="98" t="s">
         <v>122</v>
@@ -12522,7 +12780,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A268" s="3"/>
       <c r="D268" s="98" t="s">
         <v>125</v>
@@ -12549,7 +12807,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A269" s="3"/>
       <c r="D269" s="98" t="s">
         <v>124</v>
@@ -12576,7 +12834,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A270" s="3"/>
       <c r="D270" s="98" t="s">
         <v>126</v>
@@ -12603,7 +12861,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A271" s="3"/>
       <c r="D271" s="98" t="s">
         <v>123</v>
@@ -12630,7 +12888,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A272" s="3"/>
       <c r="D272" s="98"/>
       <c r="E272" s="255"/>
@@ -13917,10 +14175,10 @@
     </row>
     <row r="362" spans="1:14" s="81" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B362" s="82"/>
-      <c r="D362" s="331" t="s">
+      <c r="D362" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E362" s="332"/>
+      <c r="E362" s="340"/>
       <c r="F362" s="153" t="s">
         <v>147</v>
       </c>
@@ -14127,10 +14385,10 @@
     </row>
     <row r="372" spans="1:18" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B372" s="82"/>
-      <c r="D372" s="331" t="s">
+      <c r="D372" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E372" s="332"/>
+      <c r="E372" s="340"/>
       <c r="F372" s="179" t="s">
         <v>128</v>
       </c>
@@ -14179,19 +14437,19 @@
         <v>0.26923076923076922</v>
       </c>
       <c r="N373" s="323">
-        <f t="shared" ref="N373:Q376" si="14">+H373/$F373</f>
+        <f t="shared" ref="N373:Q376" si="17">+H373/$F373</f>
         <v>0.18099547511312217</v>
       </c>
       <c r="O373" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="P373" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="Q373" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.25565610859728505</v>
       </c>
     </row>
@@ -14220,23 +14478,23 @@
         <v>1060</v>
       </c>
       <c r="M374" s="323">
-        <f t="shared" ref="M374:M376" si="15">+G374/$F374</f>
+        <f t="shared" ref="M374:M376" si="18">+G374/$F374</f>
         <v>9.125475285171103E-2</v>
       </c>
       <c r="N374" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.2585551330798479</v>
       </c>
       <c r="O374" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.21292775665399238</v>
       </c>
       <c r="P374" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.23574144486692014</v>
       </c>
       <c r="Q374" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.20152091254752852</v>
       </c>
     </row>
@@ -14265,23 +14523,23 @@
         <v>980</v>
       </c>
       <c r="M375" s="323">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.17632850241545894</v>
       </c>
       <c r="N375" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.26328502415458938</v>
       </c>
       <c r="O375" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.16183574879227053</v>
       </c>
       <c r="P375" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.16183574879227053</v>
       </c>
       <c r="Q375" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.23671497584541062</v>
       </c>
     </row>
@@ -14310,23 +14568,23 @@
         <v>760</v>
       </c>
       <c r="M376" s="323">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.302491103202847</v>
       </c>
       <c r="N376" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.13701067615658363</v>
       </c>
       <c r="O376" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.20640569395017794</v>
       </c>
       <c r="P376" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.2188612099644128</v>
       </c>
       <c r="Q376" s="323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.13523131672597866</v>
       </c>
     </row>
@@ -14358,27 +14616,27 @@
         <v>128</v>
       </c>
       <c r="F379" s="225">
-        <f t="shared" ref="F379:K379" si="16">SUM(F373:F378)</f>
+        <f t="shared" ref="F379:K379" si="19">SUM(F373:F378)</f>
         <v>19440</v>
       </c>
       <c r="G379" s="226">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4100</v>
       </c>
       <c r="H379" s="227">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4020</v>
       </c>
       <c r="I379" s="228">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3600</v>
       </c>
       <c r="J379" s="227">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3790</v>
       </c>
       <c r="K379" s="229">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3930</v>
       </c>
     </row>
@@ -14473,19 +14731,19 @@
         <v>8.673469387755102E-2</v>
       </c>
       <c r="O384" s="72">
-        <f t="shared" ref="O384:O391" si="17">+H384/SUM($G384:$K384)</f>
+        <f t="shared" ref="O384:O391" si="20">+H384/SUM($G384:$K384)</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="P384" s="70">
-        <f t="shared" ref="P384:P391" si="18">+I384/SUM($G384:$K384)</f>
+        <f t="shared" ref="P384:P391" si="21">+I384/SUM($G384:$K384)</f>
         <v>8.673469387755102E-2</v>
       </c>
       <c r="Q384" s="72">
-        <f t="shared" ref="Q384:Q391" si="19">+J384/SUM($G384:$K384)</f>
+        <f t="shared" ref="Q384:Q391" si="22">+J384/SUM($G384:$K384)</f>
         <v>8.673469387755102E-2</v>
       </c>
       <c r="R384" s="73">
-        <f t="shared" ref="R384:R391" si="20">+K384/SUM($G384:$K384)</f>
+        <f t="shared" ref="R384:R391" si="23">+K384/SUM($G384:$K384)</f>
         <v>0.45408163265306123</v>
       </c>
     </row>
@@ -14515,23 +14773,23 @@
         <v>29</v>
       </c>
       <c r="N385" s="194">
-        <f t="shared" ref="N385:N391" si="21">+G385/SUM($G385:$K385)</f>
+        <f t="shared" ref="N385:N391" si="24">+G385/SUM($G385:$K385)</f>
         <v>0.41463414634146339</v>
       </c>
       <c r="O385" s="72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9.7560975609756101E-2</v>
       </c>
       <c r="P385" s="70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.1951219512195122</v>
       </c>
       <c r="Q385" s="72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.1951219512195122</v>
       </c>
       <c r="R385" s="73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.7560975609756101E-2</v>
       </c>
     </row>
@@ -14561,23 +14819,23 @@
         <v>93</v>
       </c>
       <c r="N386" s="194">
+        <f t="shared" si="24"/>
+        <v>9.0225563909774431E-2</v>
+      </c>
+      <c r="O386" s="72">
+        <f t="shared" si="20"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="P386" s="70">
         <f t="shared" si="21"/>
         <v>9.0225563909774431E-2</v>
       </c>
-      <c r="O386" s="72">
-        <f t="shared" si="17"/>
-        <v>0.42105263157894735</v>
-      </c>
-      <c r="P386" s="70">
-        <f t="shared" si="18"/>
+      <c r="Q386" s="72">
+        <f t="shared" si="22"/>
         <v>9.0225563909774431E-2</v>
       </c>
-      <c r="Q386" s="72">
-        <f t="shared" si="19"/>
-        <v>9.0225563909774431E-2</v>
-      </c>
       <c r="R386" s="73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.30827067669172931</v>
       </c>
     </row>
@@ -14607,23 +14865,23 @@
         <v>95</v>
       </c>
       <c r="N387" s="194">
+        <f t="shared" si="24"/>
+        <v>9.2307692307692313E-2</v>
+      </c>
+      <c r="O387" s="72">
+        <f t="shared" si="20"/>
+        <v>9.2307692307692313E-2</v>
+      </c>
+      <c r="P387" s="70">
         <f t="shared" si="21"/>
-        <v>9.2307692307692313E-2</v>
-      </c>
-      <c r="O387" s="72">
-        <f t="shared" si="17"/>
-        <v>9.2307692307692313E-2</v>
-      </c>
-      <c r="P387" s="70">
-        <f t="shared" si="18"/>
         <v>0.33846153846153848</v>
       </c>
       <c r="Q387" s="72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="R387" s="73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9.2307692307692313E-2</v>
       </c>
     </row>
@@ -14654,23 +14912,23 @@
         <v>96</v>
       </c>
       <c r="N388" s="194">
+        <f t="shared" si="24"/>
+        <v>0.14975845410628019</v>
+      </c>
+      <c r="O388" s="72">
+        <f t="shared" si="20"/>
+        <v>0.25120772946859904</v>
+      </c>
+      <c r="P388" s="70">
         <f t="shared" si="21"/>
         <v>0.14975845410628019</v>
       </c>
-      <c r="O388" s="72">
-        <f t="shared" si="17"/>
-        <v>0.25120772946859904</v>
-      </c>
-      <c r="P388" s="70">
-        <f t="shared" si="18"/>
+      <c r="Q388" s="72">
+        <f t="shared" si="22"/>
         <v>0.14975845410628019</v>
       </c>
-      <c r="Q388" s="72">
-        <f t="shared" si="19"/>
-        <v>0.14975845410628019</v>
-      </c>
       <c r="R388" s="73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.29951690821256038</v>
       </c>
     </row>
@@ -14701,23 +14959,23 @@
         <v>97</v>
       </c>
       <c r="N389" s="194">
+        <f t="shared" si="24"/>
+        <v>0.20289855072463769</v>
+      </c>
+      <c r="O389" s="72">
+        <f t="shared" si="20"/>
+        <v>0.27536231884057971</v>
+      </c>
+      <c r="P389" s="70">
         <f t="shared" si="21"/>
-        <v>0.20289855072463769</v>
-      </c>
-      <c r="O389" s="72">
-        <f t="shared" si="17"/>
-        <v>0.27536231884057971</v>
-      </c>
-      <c r="P389" s="70">
-        <f t="shared" si="18"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="Q389" s="72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="R389" s="73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.17391304347826086</v>
       </c>
     </row>
@@ -14748,23 +15006,23 @@
         <v>98</v>
       </c>
       <c r="N390" s="194">
+        <f t="shared" si="24"/>
+        <v>0.30232558139534882</v>
+      </c>
+      <c r="O390" s="72">
+        <f t="shared" si="20"/>
+        <v>0.14950166112956811</v>
+      </c>
+      <c r="P390" s="70">
         <f t="shared" si="21"/>
+        <v>0.12292358803986711</v>
+      </c>
+      <c r="Q390" s="72">
+        <f t="shared" si="22"/>
         <v>0.30232558139534882</v>
       </c>
-      <c r="O390" s="72">
-        <f t="shared" si="17"/>
-        <v>0.14950166112956811</v>
-      </c>
-      <c r="P390" s="70">
-        <f t="shared" si="18"/>
-        <v>0.12292358803986711</v>
-      </c>
-      <c r="Q390" s="72">
-        <f t="shared" si="19"/>
-        <v>0.30232558139534882</v>
-      </c>
       <c r="R390" s="73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.12292358803986711</v>
       </c>
     </row>
@@ -14795,23 +15053,23 @@
         <v>99</v>
       </c>
       <c r="N391" s="194">
+        <f t="shared" si="24"/>
+        <v>0.30268199233716475</v>
+      </c>
+      <c r="O391" s="72">
+        <f t="shared" si="20"/>
+        <v>0.12260536398467432</v>
+      </c>
+      <c r="P391" s="70">
         <f t="shared" si="21"/>
         <v>0.30268199233716475</v>
       </c>
-      <c r="O391" s="72">
-        <f t="shared" si="17"/>
+      <c r="Q391" s="72">
+        <f t="shared" si="22"/>
         <v>0.12260536398467432</v>
       </c>
-      <c r="P391" s="70">
-        <f t="shared" si="18"/>
-        <v>0.30268199233716475</v>
-      </c>
-      <c r="Q391" s="72">
-        <f t="shared" si="19"/>
-        <v>0.12260536398467432</v>
-      </c>
       <c r="R391" s="73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14942528735632185</v>
       </c>
     </row>
@@ -15065,27 +15323,27 @@
         <v>128</v>
       </c>
       <c r="F414" s="225">
-        <f t="shared" ref="F414:K414" si="22">SUM(F384:F413)</f>
+        <f t="shared" ref="F414:K414" si="25">SUM(F384:F413)</f>
         <v>19440</v>
       </c>
       <c r="G414" s="226">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4100</v>
       </c>
       <c r="H414" s="227">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4020</v>
       </c>
       <c r="I414" s="228">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3600</v>
       </c>
       <c r="J414" s="227">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3790</v>
       </c>
       <c r="K414" s="229">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3930</v>
       </c>
     </row>
@@ -15107,10 +15365,10 @@
     </row>
     <row r="418" spans="1:11" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B418" s="82"/>
-      <c r="D418" s="331" t="s">
+      <c r="D418" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E418" s="332"/>
+      <c r="E418" s="340"/>
       <c r="F418" s="139" t="s">
         <v>161</v>
       </c>
@@ -15546,12 +15804,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="454" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B454" s="82"/>
-      <c r="D454" s="331" t="s">
+      <c r="D454" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E454" s="332"/>
+      <c r="E454" s="340"/>
       <c r="F454" s="179" t="s">
         <v>128</v>
       </c>
@@ -15710,12 +15968,12 @@
       <c r="J463" s="4"/>
       <c r="K463" s="3"/>
     </row>
-    <row r="464" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B464" s="82"/>
-      <c r="D464" s="331" t="s">
+      <c r="D464" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E464" s="332"/>
+      <c r="E464" s="340"/>
       <c r="F464" s="179" t="s">
         <v>128</v>
       </c>
@@ -16200,10 +16458,10 @@
     </row>
     <row r="499" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B499" s="82"/>
-      <c r="D499" s="331" t="s">
+      <c r="D499" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E499" s="332"/>
+      <c r="E499" s="340"/>
       <c r="F499" s="153" t="s">
         <v>122</v>
       </c>
@@ -16315,10 +16573,10 @@
     </row>
     <row r="507" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B507" s="82"/>
-      <c r="D507" s="331" t="s">
+      <c r="D507" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E507" s="332"/>
+      <c r="E507" s="340"/>
       <c r="F507" s="278" t="s">
         <v>122</v>
       </c>
@@ -16424,10 +16682,10 @@
     </row>
     <row r="515" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B515" s="82"/>
-      <c r="D515" s="331" t="s">
+      <c r="D515" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E515" s="331"/>
+      <c r="E515" s="339"/>
       <c r="F515" s="282"/>
     </row>
     <row r="516" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -16514,12 +16772,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="525" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B525" s="82"/>
-      <c r="D525" s="331" t="s">
+      <c r="D525" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E525" s="332"/>
+      <c r="E525" s="340"/>
       <c r="F525" s="153" t="s">
         <v>40</v>
       </c>
@@ -16614,12 +16872,12 @@
       <c r="I532" s="80"/>
       <c r="J532" s="4"/>
     </row>
-    <row r="533" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B533" s="82"/>
-      <c r="D533" s="331" t="s">
+      <c r="D533" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E533" s="332"/>
+      <c r="E533" s="340"/>
       <c r="F533" s="153" t="s">
         <v>40</v>
       </c>
@@ -16708,10 +16966,10 @@
     </row>
     <row r="541" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B541" s="82"/>
-      <c r="D541" s="331" t="s">
+      <c r="D541" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E541" s="331"/>
+      <c r="E541" s="339"/>
       <c r="F541" s="282"/>
     </row>
     <row r="542" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -16801,28 +17059,28 @@
     </row>
     <row r="551" spans="1:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B551" s="9"/>
-      <c r="F551" s="336" t="s">
+      <c r="F551" s="344" t="s">
         <v>182</v>
       </c>
-      <c r="G551" s="337"/>
-      <c r="H551" s="338"/>
-      <c r="I551" s="336" t="s">
+      <c r="G551" s="345"/>
+      <c r="H551" s="346"/>
+      <c r="I551" s="344" t="s">
         <v>183</v>
       </c>
-      <c r="J551" s="337"/>
-      <c r="K551" s="338"/>
-      <c r="L551" s="336" t="s">
+      <c r="J551" s="345"/>
+      <c r="K551" s="346"/>
+      <c r="L551" s="344" t="s">
         <v>184</v>
       </c>
-      <c r="M551" s="337"/>
-      <c r="N551" s="338"/>
+      <c r="M551" s="345"/>
+      <c r="N551" s="346"/>
     </row>
     <row r="552" spans="1:14" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B552" s="82"/>
-      <c r="D552" s="331" t="s">
+      <c r="D552" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E552" s="331"/>
+      <c r="E552" s="339"/>
       <c r="F552" s="84" t="s">
         <v>4</v>
       </c>
@@ -16876,15 +17134,15 @@
         <v>0.153</v>
       </c>
       <c r="L553" s="290">
-        <f t="shared" ref="L553:N557" si="23">IF(F553=0,"",IF(F$558=0,"",F553/F$558))</f>
+        <f t="shared" ref="L553:N557" si="26">IF(F553=0,"",IF(F$558=0,"",F553/F$558))</f>
         <v>0.16228467815049863</v>
       </c>
       <c r="M553" s="156">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.16170861937452327</v>
       </c>
       <c r="N553" s="271">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.16882516188714153</v>
       </c>
     </row>
@@ -16913,15 +17171,15 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="L554" s="234">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.1586582048957389</v>
       </c>
       <c r="M554" s="159">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.17162471395881007</v>
       </c>
       <c r="N554" s="273">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.22895467160037003</v>
       </c>
     </row>
@@ -16950,15 +17208,15 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="L555" s="234">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.21486854034451497</v>
       </c>
       <c r="M555" s="159">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.20442410373760489</v>
       </c>
       <c r="N555" s="273">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.14523589269195189</v>
       </c>
     </row>
@@ -16987,15 +17245,15 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="L556" s="234">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.19854941069809609</v>
       </c>
       <c r="M556" s="159">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.19755911517925248</v>
       </c>
       <c r="N556" s="273">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.15494912118408879</v>
       </c>
     </row>
@@ -17024,15 +17282,15 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="L557" s="235">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.26563916591115139</v>
       </c>
       <c r="M557" s="275">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.26468344774980929</v>
       </c>
       <c r="N557" s="276">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.30203515263644776</v>
       </c>
     </row>
@@ -17105,10 +17363,10 @@
     </row>
     <row r="563" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B563" s="82"/>
-      <c r="D563" s="331" t="s">
+      <c r="D563" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="E563" s="332"/>
+      <c r="E563" s="340"/>
       <c r="F563" s="153" t="s">
         <v>122</v>
       </c>
@@ -17907,24 +18165,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D362:E362"/>
-    <mergeCell ref="D372:E372"/>
-    <mergeCell ref="D187:E188"/>
-    <mergeCell ref="D552:E552"/>
-    <mergeCell ref="D454:E454"/>
-    <mergeCell ref="D464:E464"/>
-    <mergeCell ref="D499:E499"/>
-    <mergeCell ref="D418:E418"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="J187:M187"/>
-    <mergeCell ref="D152:E153"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="J152:M152"/>
     <mergeCell ref="D563:E563"/>
     <mergeCell ref="D507:E507"/>
     <mergeCell ref="F551:H551"/>
@@ -17934,36 +18174,54 @@
     <mergeCell ref="D525:E525"/>
     <mergeCell ref="D533:E533"/>
     <mergeCell ref="D541:E541"/>
+    <mergeCell ref="F187:I187"/>
+    <mergeCell ref="J187:M187"/>
+    <mergeCell ref="D152:E153"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="D362:E362"/>
+    <mergeCell ref="D372:E372"/>
+    <mergeCell ref="D187:E188"/>
+    <mergeCell ref="D552:E552"/>
+    <mergeCell ref="D454:E454"/>
+    <mergeCell ref="D464:E464"/>
+    <mergeCell ref="D499:E499"/>
+    <mergeCell ref="D418:E418"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D116:E116"/>
   </mergeCells>
   <conditionalFormatting sqref="N384:R384">
+    <cfRule type="top10" dxfId="10" priority="11" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N385:R385">
     <cfRule type="top10" dxfId="9" priority="10" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N385:R385">
+  <conditionalFormatting sqref="N386:R386">
     <cfRule type="top10" dxfId="8" priority="9" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N386:R386">
+  <conditionalFormatting sqref="N387:R387">
     <cfRule type="top10" dxfId="7" priority="8" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N387:R387">
+  <conditionalFormatting sqref="N388:R388">
     <cfRule type="top10" dxfId="6" priority="7" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N388:R388">
+  <conditionalFormatting sqref="N389:R389">
     <cfRule type="top10" dxfId="5" priority="6" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N389:R389">
+  <conditionalFormatting sqref="N390:R390">
     <cfRule type="top10" dxfId="4" priority="5" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N390:R390">
+  <conditionalFormatting sqref="N391:R391">
     <cfRule type="top10" dxfId="3" priority="4" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N391:R391">
-    <cfRule type="top10" dxfId="2" priority="3" rank="2"/>
+  <conditionalFormatting sqref="O6:S13">
+    <cfRule type="top10" dxfId="2" priority="3" rank="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:S13">
-    <cfRule type="top10" dxfId="1" priority="2" rank="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U6:Y13">
-    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
+  <conditionalFormatting sqref="W257:AA257">
+    <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18033,10 +18291,10 @@
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="82"/>
-      <c r="D5" s="331" t="s">
+      <c r="D5" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="332"/>
+      <c r="E5" s="340"/>
       <c r="F5" s="179" t="s">
         <v>121</v>
       </c>
@@ -18392,10 +18650,10 @@
     </row>
     <row r="38" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="82"/>
-      <c r="D38" s="331" t="s">
+      <c r="D38" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="332"/>
+      <c r="E38" s="340"/>
       <c r="F38" s="179" t="s">
         <v>121</v>
       </c>
@@ -18779,10 +19037,10 @@
     </row>
     <row r="72" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="82"/>
-      <c r="D72" s="331" t="s">
+      <c r="D72" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="332"/>
+      <c r="E72" s="340"/>
       <c r="F72" s="153" t="s">
         <v>198</v>
       </c>
@@ -18893,10 +19151,10 @@
     </row>
     <row r="82" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="82"/>
-      <c r="D82" s="331" t="s">
+      <c r="D82" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E82" s="332"/>
+      <c r="E82" s="340"/>
       <c r="F82" s="179" t="s">
         <v>128</v>
       </c>
@@ -19281,10 +19539,10 @@
     </row>
     <row r="116" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B116" s="82"/>
-      <c r="D116" s="331" t="s">
+      <c r="D116" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E116" s="332"/>
+      <c r="E116" s="340"/>
       <c r="F116" s="179" t="s">
         <v>128</v>
       </c>
@@ -19712,27 +19970,27 @@
     </row>
     <row r="152" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B152" s="82"/>
-      <c r="D152" s="329" t="s">
+      <c r="D152" s="337" t="s">
         <v>71</v>
       </c>
-      <c r="E152" s="330"/>
-      <c r="F152" s="333" t="s">
+      <c r="E152" s="338"/>
+      <c r="F152" s="341" t="s">
         <v>35</v>
       </c>
-      <c r="G152" s="334"/>
-      <c r="H152" s="334"/>
-      <c r="I152" s="335"/>
-      <c r="J152" s="333" t="s">
+      <c r="G152" s="342"/>
+      <c r="H152" s="342"/>
+      <c r="I152" s="343"/>
+      <c r="J152" s="341" t="s">
         <v>39</v>
       </c>
-      <c r="K152" s="334"/>
-      <c r="L152" s="334"/>
-      <c r="M152" s="335"/>
+      <c r="K152" s="342"/>
+      <c r="L152" s="342"/>
+      <c r="M152" s="343"/>
     </row>
     <row r="153" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B153" s="82"/>
-      <c r="D153" s="331"/>
-      <c r="E153" s="332"/>
+      <c r="D153" s="339"/>
+      <c r="E153" s="340"/>
       <c r="F153" s="84" t="s">
         <v>40</v>
       </c>
@@ -20201,27 +20459,27 @@
     </row>
     <row r="187" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B187" s="82"/>
-      <c r="D187" s="329" t="s">
+      <c r="D187" s="337" t="s">
         <v>71</v>
       </c>
-      <c r="E187" s="330"/>
-      <c r="F187" s="333" t="s">
+      <c r="E187" s="338"/>
+      <c r="F187" s="341" t="s">
         <v>38</v>
       </c>
-      <c r="G187" s="334"/>
-      <c r="H187" s="334"/>
-      <c r="I187" s="335"/>
-      <c r="J187" s="333" t="s">
+      <c r="G187" s="342"/>
+      <c r="H187" s="342"/>
+      <c r="I187" s="343"/>
+      <c r="J187" s="341" t="s">
         <v>136</v>
       </c>
-      <c r="K187" s="334"/>
-      <c r="L187" s="334"/>
-      <c r="M187" s="335"/>
+      <c r="K187" s="342"/>
+      <c r="L187" s="342"/>
+      <c r="M187" s="343"/>
     </row>
     <row r="188" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B188" s="82"/>
-      <c r="D188" s="331"/>
-      <c r="E188" s="332"/>
+      <c r="D188" s="339"/>
+      <c r="E188" s="340"/>
       <c r="F188" s="84" t="s">
         <v>40</v>
       </c>
@@ -20672,10 +20930,10 @@
     </row>
     <row r="223" spans="1:13" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B223" s="82"/>
-      <c r="D223" s="331" t="s">
+      <c r="D223" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E223" s="332"/>
+      <c r="E223" s="340"/>
       <c r="F223" s="153" t="s">
         <v>72</v>
       </c>
@@ -21621,10 +21879,10 @@
     </row>
     <row r="296" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B296" s="82"/>
-      <c r="D296" s="331" t="s">
+      <c r="D296" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E296" s="332"/>
+      <c r="E296" s="340"/>
       <c r="F296" s="153" t="s">
         <v>206</v>
       </c>
@@ -22304,10 +22562,10 @@
     </row>
     <row r="362" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B362" s="82"/>
-      <c r="D362" s="331" t="s">
+      <c r="D362" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E362" s="332"/>
+      <c r="E362" s="340"/>
       <c r="F362" s="153" t="s">
         <v>206</v>
       </c>
@@ -22398,10 +22656,10 @@
     </row>
     <row r="372" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B372" s="82"/>
-      <c r="D372" s="331" t="s">
+      <c r="D372" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E372" s="332"/>
+      <c r="E372" s="340"/>
       <c r="F372" s="179" t="s">
         <v>128</v>
       </c>
@@ -22535,10 +22793,10 @@
     </row>
     <row r="383" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B383" s="82"/>
-      <c r="D383" s="331" t="s">
+      <c r="D383" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E383" s="332"/>
+      <c r="E383" s="340"/>
       <c r="F383" s="179" t="s">
         <v>128</v>
       </c>
@@ -22933,10 +23191,10 @@
     </row>
     <row r="418" spans="1:11" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B418" s="82"/>
-      <c r="D418" s="331" t="s">
+      <c r="D418" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E418" s="332"/>
+      <c r="E418" s="340"/>
       <c r="F418" s="139" t="s">
         <v>161</v>
       </c>
@@ -23312,10 +23570,10 @@
     </row>
     <row r="454" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B454" s="82"/>
-      <c r="D454" s="331" t="s">
+      <c r="D454" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E454" s="332"/>
+      <c r="E454" s="340"/>
       <c r="F454" s="179" t="s">
         <v>128</v>
       </c>
@@ -23438,10 +23696,10 @@
     </row>
     <row r="464" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B464" s="82"/>
-      <c r="D464" s="331" t="s">
+      <c r="D464" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E464" s="332"/>
+      <c r="E464" s="340"/>
       <c r="F464" s="179" t="s">
         <v>128</v>
       </c>
@@ -23832,10 +24090,10 @@
     </row>
     <row r="499" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B499" s="82"/>
-      <c r="D499" s="331" t="s">
+      <c r="D499" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E499" s="332"/>
+      <c r="E499" s="340"/>
       <c r="F499" s="153" t="s">
         <v>198</v>
       </c>
@@ -23917,10 +24175,10 @@
     </row>
     <row r="507" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B507" s="82"/>
-      <c r="D507" s="331" t="s">
+      <c r="D507" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E507" s="332"/>
+      <c r="E507" s="340"/>
       <c r="F507" s="278" t="s">
         <v>198</v>
       </c>
@@ -23996,10 +24254,10 @@
     </row>
     <row r="515" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B515" s="82"/>
-      <c r="D515" s="331" t="s">
+      <c r="D515" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E515" s="331"/>
+      <c r="E515" s="339"/>
       <c r="F515" s="282"/>
     </row>
     <row r="516" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -24078,10 +24336,10 @@
     </row>
     <row r="525" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B525" s="82"/>
-      <c r="D525" s="331" t="s">
+      <c r="D525" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E525" s="332"/>
+      <c r="E525" s="340"/>
       <c r="F525" s="153" t="s">
         <v>40</v>
       </c>
@@ -24160,10 +24418,10 @@
     </row>
     <row r="533" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B533" s="82"/>
-      <c r="D533" s="331" t="s">
+      <c r="D533" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E533" s="332"/>
+      <c r="E533" s="340"/>
       <c r="F533" s="153" t="s">
         <v>40</v>
       </c>
@@ -24234,10 +24492,10 @@
     </row>
     <row r="541" spans="1:11" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B541" s="82"/>
-      <c r="D541" s="331" t="s">
+      <c r="D541" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E541" s="331"/>
+      <c r="E541" s="339"/>
       <c r="F541" s="282"/>
     </row>
     <row r="542" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -24317,28 +24575,28 @@
     </row>
     <row r="551" spans="1:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B551" s="9"/>
-      <c r="F551" s="336" t="s">
+      <c r="F551" s="344" t="s">
         <v>182</v>
       </c>
-      <c r="G551" s="337"/>
-      <c r="H551" s="338"/>
-      <c r="I551" s="336" t="s">
+      <c r="G551" s="345"/>
+      <c r="H551" s="346"/>
+      <c r="I551" s="344" t="s">
         <v>183</v>
       </c>
-      <c r="J551" s="337"/>
-      <c r="K551" s="338"/>
-      <c r="L551" s="336" t="s">
+      <c r="J551" s="345"/>
+      <c r="K551" s="346"/>
+      <c r="L551" s="344" t="s">
         <v>184</v>
       </c>
-      <c r="M551" s="337"/>
-      <c r="N551" s="338"/>
+      <c r="M551" s="345"/>
+      <c r="N551" s="346"/>
     </row>
     <row r="552" spans="1:14" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B552" s="82"/>
-      <c r="D552" s="331" t="s">
+      <c r="D552" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E552" s="331"/>
+      <c r="E552" s="339"/>
       <c r="F552" s="84" t="s">
         <v>4</v>
       </c>
@@ -24593,10 +24851,10 @@
     </row>
     <row r="563" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B563" s="82"/>
-      <c r="D563" s="331" t="s">
+      <c r="D563" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E563" s="332"/>
+      <c r="E563" s="340"/>
       <c r="F563" s="153" t="s">
         <v>198</v>
       </c>
@@ -24687,23 +24945,23 @@
     <row r="571" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A571" s="3"/>
       <c r="B571" s="9"/>
-      <c r="F571" s="339" t="s">
+      <c r="F571" s="347" t="s">
         <v>214</v>
       </c>
-      <c r="G571" s="340"/>
-      <c r="H571" s="339"/>
-      <c r="I571" s="340"/>
-      <c r="J571" s="339"/>
-      <c r="K571" s="340"/>
-      <c r="L571" s="339"/>
-      <c r="M571" s="340"/>
+      <c r="G571" s="348"/>
+      <c r="H571" s="347"/>
+      <c r="I571" s="348"/>
+      <c r="J571" s="347"/>
+      <c r="K571" s="348"/>
+      <c r="L571" s="347"/>
+      <c r="M571" s="348"/>
     </row>
     <row r="572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A572" s="3"/>
-      <c r="D572" s="331" t="s">
+      <c r="D572" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="E572" s="332"/>
+      <c r="E572" s="340"/>
       <c r="F572" s="298" t="s">
         <v>194</v>
       </c>
@@ -25001,6 +25259,33 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D362:E362"/>
+    <mergeCell ref="D372:E372"/>
+    <mergeCell ref="D187:E188"/>
+    <mergeCell ref="F187:I187"/>
+    <mergeCell ref="J187:M187"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="D152:E153"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D383:E383"/>
+    <mergeCell ref="D454:E454"/>
+    <mergeCell ref="D464:E464"/>
+    <mergeCell ref="D499:E499"/>
+    <mergeCell ref="D507:E507"/>
+    <mergeCell ref="D418:E418"/>
+    <mergeCell ref="D515:E515"/>
+    <mergeCell ref="D525:E525"/>
+    <mergeCell ref="D533:E533"/>
+    <mergeCell ref="F551:H551"/>
+    <mergeCell ref="I551:K551"/>
+    <mergeCell ref="D541:E541"/>
     <mergeCell ref="D572:E572"/>
     <mergeCell ref="L551:N551"/>
     <mergeCell ref="D552:E552"/>
@@ -25009,33 +25294,6 @@
     <mergeCell ref="H571:I571"/>
     <mergeCell ref="J571:K571"/>
     <mergeCell ref="L571:M571"/>
-    <mergeCell ref="D515:E515"/>
-    <mergeCell ref="D525:E525"/>
-    <mergeCell ref="D533:E533"/>
-    <mergeCell ref="F551:H551"/>
-    <mergeCell ref="I551:K551"/>
-    <mergeCell ref="D541:E541"/>
-    <mergeCell ref="D383:E383"/>
-    <mergeCell ref="D454:E454"/>
-    <mergeCell ref="D464:E464"/>
-    <mergeCell ref="D499:E499"/>
-    <mergeCell ref="D507:E507"/>
-    <mergeCell ref="D418:E418"/>
-    <mergeCell ref="D152:E153"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="J152:M152"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D362:E362"/>
-    <mergeCell ref="D372:E372"/>
-    <mergeCell ref="D187:E188"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="J187:M187"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D296:E296"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
